--- a/ClassProject/EVRegistrations.xlsx
+++ b/ClassProject/EVRegistrations.xlsx
@@ -8,30 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarter/Code/SavvyCoders/activities/ClassProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FCAB7A4-8CDF-CF47-BDF7-2857937FA555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2068179F-F75D-0442-8038-579204886044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28140" windowHeight="15780" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28140" windowHeight="15780" activeTab="2" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="EV Registration Counts in 2022" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Condensed" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Condensed" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$53</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$3:$A$53</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$3:$B$53</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$3:$B$53</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$3:$A$53</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$3:$B$53</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Sheet1!$A$3:$A$53</definedName>
-    <definedName name="_xlchart.v5.8" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v5.9" hidden="1">Sheet1!$B$3:$B$53</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -431,6 +417,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -443,7 +430,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -525,13 +511,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -560,6 +539,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3217,7 +3203,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{757A1EF0-090A-E340-B6EE-11803E605BB4}" name="Table232" displayName="Table232" ref="A2:B54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{757A1EF0-090A-E340-B6EE-11803E605BB4}" name="Table232" displayName="Table232" ref="A2:B54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{49885A0E-A6CB-B449-879B-282E6FEF803D}" name="State" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{B55EE516-13C6-9544-873C-342C0FAFFDFC}" name="Registration Count" dataDxfId="0" dataCellStyle="Comma"/>
@@ -3525,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEAD6DA-77B8-B749-BB62-A3A394A9DB55}">
   <dimension ref="B2:AM55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
@@ -3539,10 +3525,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:39" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -3858,10 +3844,10 @@
       <c r="C37" s="15">
         <v>45590</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -3875,23 +3861,23 @@
       <c r="C38" s="15">
         <v>640</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
@@ -3925,21 +3911,21 @@
       <c r="C41" s="15">
         <v>46980</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
@@ -3948,12 +3934,12 @@
       <c r="C42" s="15">
         <v>47440</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
@@ -3962,25 +3948,25 @@
       <c r="C43" s="15">
         <v>4340</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
@@ -3997,15 +3983,15 @@
       <c r="C45" s="15">
         <v>1170</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
@@ -4014,15 +4000,15 @@
       <c r="C46" s="15">
         <v>22040</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.2">
@@ -4154,10 +4140,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -4177,7 +4163,7 @@
       <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="17">
         <f>MAX(B3:B53)</f>
         <v>903620</v>
       </c>
@@ -4192,7 +4178,7 @@
       <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="17">
         <f>MIN(B3:B53)</f>
         <v>640</v>
       </c>
@@ -4207,7 +4193,7 @@
       <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <f>AVERAGE(B3:B53)</f>
         <v>47887.647058823532</v>
       </c>
@@ -4618,6 +4604,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A98937-D39C-9A41-8FB7-F3B5F251C2C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426088F7-AD74-FA46-B5FF-90124E3BA892}">
   <dimension ref="B2:C56"/>
   <sheetViews>
@@ -4631,10 +4629,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -5064,12 +5062,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5238,15 +5233,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2FD551-9419-4572-B7D3-D2049285AB81}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5271,17 +5277,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2FD551-9419-4572-B7D3-D2049285AB81}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ClassProject/EVRegistrations.xlsx
+++ b/ClassProject/EVRegistrations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarter/Code/SavvyCoders/activities/ClassProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2068179F-F75D-0442-8038-579204886044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A8ADA2-C77D-DE42-91D5-F734BC4E211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28140" windowHeight="15780" activeTab="2" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
+    <workbookView xWindow="1500" yWindow="500" windowWidth="28140" windowHeight="15780" activeTab="1" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="EV Registration Counts in 2022" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="120">
   <si>
     <t>Electric Vehicle Registrations by State</t>
   </si>
@@ -236,6 +236,168 @@
   </si>
   <si>
     <t>Avg. Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State  Pop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,817,678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 728,300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,561,516</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,947,036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38,066,920</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,197,580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,592,053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 917,060</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 633,736</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19,361,792</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,907,756</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,392,704</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,599,464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12,868,747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,542,411</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,078,116</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,882,946</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,383,272</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,601,049</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,328,535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,887,776</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,657,291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,889,024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,383,661</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,984,345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,028,076</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,006,370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,855,617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,761,584</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,321,069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,874,374</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,080,085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19,594,330</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,750,405</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 704,925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11,560,380</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,818,851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,900,343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12,758,729</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,053,252</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,727,273</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 834,708</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,451,365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26,092,033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,858,111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 626,358</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8,185,131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6,899,123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,853,881</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,724,692</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 575,251</t>
+  </si>
+  <si>
+    <t># EV / Pop</t>
+  </si>
+  <si>
+    <t>per 1000</t>
   </si>
 </sst>
 </file>
@@ -246,7 +408,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +464,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +479,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -391,13 +559,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -430,13 +611,63 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1948,6 +2179,574 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Registration Count </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Arizona</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Delaware</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>District of Columbia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hawaii</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Idaho</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Maine</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Mississippi</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Missouri</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Nebraska</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>New Hampshire</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>New Mexico</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Oregon</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Rhode Island</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>South Carolina</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>South Dakota</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Utah</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Vermont</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Washington</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Wyoming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1.8120762740888869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>728.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6561.5159999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2947.0360000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38066.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5197.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3592.0529999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>917.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>633.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19361.792000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9907.7559999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1392.704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1599.4639999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12868.746999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6542.4110000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3078.116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2882.9459999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4383.2719999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4601.049</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1328.5350000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5887.7759999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6657.2910000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9889.0239999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5383.6610000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2984.3449999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6028.076</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1006.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1855.617</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2761.5839999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1321.069</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8874.3739999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2080.085</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19594.330000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9750.4050000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>704.92499999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11560.38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3818.8510000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3900.3429999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12758.728999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1053.252</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4727.2730000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>834.70799999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6451.3649999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26092.032999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2858.1109999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>626.35799999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8185.1310000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6899.1229999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1853.8810000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5724.692</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>575.25099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B44-B941-8203-3E39B14B3DD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1508625231"/>
+        <c:axId val="1508627503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1508625231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508627503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1508627503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508625231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2028,6 +2827,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3036,18 +3875,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2809</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228587</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>186267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>135467</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361244</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>39158</xdr:rowOff>
     </xdr:to>
@@ -3155,14 +4499,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3189,24 +4533,69 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1214329D-C91F-9343-8891-7E13FF2EB17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FD5192E-B4A3-DE42-A7C7-FB382F473F10}" name="Table23" displayName="Table23" ref="B3:C55" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FD5192E-B4A3-DE42-A7C7-FB382F473F10}" name="Table23" displayName="Table23" ref="B3:C55" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{E372532D-07D0-D343-9505-E0B83346A8CC}" name="State" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{1DA5ED27-5F98-7F4E-951C-E6D01E88025E}" name="Registration Count" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{E372532D-07D0-D343-9505-E0B83346A8CC}" name="State" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{1DA5ED27-5F98-7F4E-951C-E6D01E88025E}" name="Registration Count" dataDxfId="10" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{757A1EF0-090A-E340-B6EE-11803E605BB4}" name="Table232" displayName="Table232" ref="A2:B54" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{49885A0E-A6CB-B449-879B-282E6FEF803D}" name="State" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{B55EE516-13C6-9544-873C-342C0FAFFDFC}" name="Registration Count" dataDxfId="0" dataCellStyle="Comma"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{757A1EF0-090A-E340-B6EE-11803E605BB4}" name="Table232" displayName="Table232" ref="A2:E54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="2" xr3:uid="{49885A0E-A6CB-B449-879B-282E6FEF803D}" name="State" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B55EE516-13C6-9544-873C-342C0FAFFDFC}" name="Registration Count" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{BF5B8A3E-0648-F746-9C0C-E14FB244DD71}" name="State  Pop. " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3C47E616-0A43-F449-8BB7-37442359E695}" name="# EV / Pop" dataDxfId="1">
+      <calculatedColumnFormula xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1870A35A-F37C-4F49-A4BC-5016557B7321}" name="per 1000" dataDxfId="0">
+      <calculatedColumnFormula>Table232[[#This Row],[State  Pop. ]]/1000</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3511,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEAD6DA-77B8-B749-BB62-A3A394A9DB55}">
   <dimension ref="B2:AM55"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
@@ -4126,10 +5515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C01EF95-8C29-5540-91D1-2FB9F8A14090}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B53"/>
+    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4139,450 +5528,1020 @@
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="15">
         <v>8730</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.8120762740888867E-3</v>
+      </c>
+      <c r="E3" s="24">
+        <f>Table232[[#This Row],[Registration Count]]/(Table232[[#This Row],[State  Pop. ]]/1000)</f>
+        <v>1.8120762740888869</v>
+      </c>
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="17">
+      <c r="J3" s="17">
         <f>MAX(B3:B53)</f>
         <v>903620</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15">
         <v>1970</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.7049292873815734E-3</v>
+      </c>
+      <c r="E4" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>728.3</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="17">
+      <c r="J4" s="17">
         <f>MIN(B3:B53)</f>
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="15">
         <v>65780</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.0025122243091383E-2</v>
+      </c>
+      <c r="E5" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>6561.5159999999996</v>
+      </c>
+      <c r="I5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="17">
+      <c r="J5" s="17">
         <f>AVERAGE(B3:B53)</f>
         <v>47887.647058823532</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="15">
         <v>5140</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.7441252838445137E-3</v>
+      </c>
+      <c r="E6" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>2947.0360000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="15">
         <v>903620</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.3737670397289825E-2</v>
+      </c>
+      <c r="E7" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>38066.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="15">
         <v>59910</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.1526518110351356E-2</v>
+      </c>
+      <c r="E8" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>5197.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="15">
         <v>22030</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>6.1329830044267166E-3</v>
+      </c>
+      <c r="E9" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>3592.0529999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="15">
         <v>5390</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>5.8774780276099709E-3</v>
+      </c>
+      <c r="E10" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>917.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="15">
         <v>5860</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>9.2467525909842585E-3</v>
+      </c>
+      <c r="E11" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>633.73599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="15">
         <v>167990</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>8.6763663198117201E-3</v>
+      </c>
+      <c r="E12" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>19361.792000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15">
         <v>60120</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>6.0679734139597302E-3</v>
+      </c>
+      <c r="E13" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>9907.7559999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="15">
         <v>19760</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.4188226643996139E-2</v>
+      </c>
+      <c r="E14" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>1392.704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="15">
         <v>5940</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>3.7137441042749322E-3</v>
+      </c>
+      <c r="E15" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>1599.4639999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="15">
         <v>66880</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>5.1970871756201282E-3</v>
+      </c>
+      <c r="E16" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>12868.746999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15">
         <v>17710</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.7069531400580001E-3</v>
+      </c>
+      <c r="E17" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>6542.4110000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="15">
         <v>6220</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.020716568186514E-3</v>
+      </c>
+      <c r="E18" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>3078.116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="15">
         <v>7550</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.6188489135765985E-3</v>
+      </c>
+      <c r="E19" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>2882.9459999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="15">
         <v>7560</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.7247389621269226E-3</v>
+      </c>
+      <c r="E20" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>4383.2719999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="15">
         <v>5880</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.2779694369696997E-3</v>
+      </c>
+      <c r="E21" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>4601.049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="15">
         <v>4990</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>3.7560169660565963E-3</v>
+      </c>
+      <c r="E22" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>1328.5350000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="15">
         <v>46060</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>7.8229878310587895E-3</v>
+      </c>
+      <c r="E23" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>5887.7759999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="15">
         <v>49440</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>7.4264441797722231E-3</v>
+      </c>
+      <c r="E24" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>6657.2910000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="15">
         <v>33150</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>3.3522013901472985E-3</v>
+      </c>
+      <c r="E25" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>9889.0239999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="15">
         <v>24330</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>4.5192295725901017E-3</v>
+      </c>
+      <c r="E26" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>5383.6610000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="15">
         <v>2420</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>8.1089820379346225E-4</v>
+      </c>
+      <c r="E27" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>2984.3449999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="15">
         <v>17870</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.9644616292163538E-3</v>
+      </c>
+      <c r="E28" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>6028.076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="15">
         <v>3260</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>3.239365243399545E-3</v>
+      </c>
+      <c r="E29" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>1006.37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="15">
         <v>4570</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.4627926991399626E-3</v>
+      </c>
+      <c r="E30" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>1855.617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="15">
         <v>32950</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.1931558120267209E-2</v>
+      </c>
+      <c r="E31" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>2761.5839999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="15">
         <v>6990</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>5.291169499852014E-3</v>
+      </c>
+      <c r="E32" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>1321.069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="15">
         <v>87030</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>9.8068889140800249E-3</v>
+      </c>
+      <c r="E33" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>8874.3739999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="15">
         <v>7080</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>3.4037070600480271E-3</v>
+      </c>
+      <c r="E34" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>2080.085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="15">
         <v>84670</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>4.3211480055709997E-3</v>
+      </c>
+      <c r="E35" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>19594.330000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="15">
         <v>45590</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>4.6757032143793006E-3</v>
+      </c>
+      <c r="E36" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>9750.4050000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="15">
         <v>640</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>9.0789800333368801E-4</v>
+      </c>
+      <c r="E37" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>704.92499999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="15">
         <v>34060</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.9462699323032633E-3</v>
+      </c>
+      <c r="E38" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>11560.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="15">
         <v>16290</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>4.2656809600584052E-3</v>
+      </c>
+      <c r="E39" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>3818.8510000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="15">
         <v>46980</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.2045094495535393E-2</v>
+      </c>
+      <c r="E40" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>3900.3429999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="15">
         <v>47440</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>3.7182387054384494E-3</v>
+      </c>
+      <c r="E41" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>12758.728999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="15">
         <v>4340</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>4.1205713352550008E-3</v>
+      </c>
+      <c r="E42" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>1053.252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="15">
         <v>13490</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.85365368151998E-3</v>
+      </c>
+      <c r="E43" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>4727.2730000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="15">
         <v>1170</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.4016877758449662E-3</v>
+      </c>
+      <c r="E44" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>834.70799999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="15">
         <v>22040</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>3.4163312725291471E-3</v>
+      </c>
+      <c r="E45" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>6451.3649999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="15">
         <v>149000</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>5.7105554021030097E-3</v>
+      </c>
+      <c r="E46" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>26092.032999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="15">
         <v>28050</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>9.8141744669818631E-3</v>
+      </c>
+      <c r="E47" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>2858.1109999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B48" s="15">
         <v>5260</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>8.3977533614961412E-3</v>
+      </c>
+      <c r="E48" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>626.35799999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="15">
         <v>56610</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>6.9161996307695013E-3</v>
+      </c>
+      <c r="E49" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>8185.1310000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="15">
         <v>104050</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.5081627041581952E-2</v>
+      </c>
+      <c r="E50" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>6899.1229999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="15">
         <v>1870</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.0086947328334451E-3</v>
+      </c>
+      <c r="E51" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>1853.8810000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="15">
         <v>15700</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>2.7425056230099367E-3</v>
+      </c>
+      <c r="E52" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>5724.692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="15">
         <v>840</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="27">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
+        <v>1.4602321421431689E-3</v>
+      </c>
+      <c r="E53" s="24">
+        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
+        <v>575.25099999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
@@ -4590,6 +6549,9 @@
         <f>SUM(B3:B53)</f>
         <v>2442270</v>
       </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4607,7 +6569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A98937-D39C-9A41-8FB7-F3B5F251C2C4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -5062,12 +7024,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C64A56E9F85AC84187966BAEAF7CF07F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b4c727a553e750e34f13bc08f769772">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1b167cac-9da6-43f0-b7e7-4775de4a2f66" xmlns:ns3="9073c3f8-2855-48ea-b895-d99d76b52c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67fa4f4e55873e847db25c6735f4e3ac" ns2:_="" ns3:_="">
     <xsd:import namespace="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
@@ -5232,6 +7188,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5242,22 +7204,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2FD551-9419-4572-B7D3-D2049285AB81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{295CFC91-E0F1-4E53-9BAF-976A902BC7AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5276,6 +7222,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2FD551-9419-4572-B7D3-D2049285AB81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
   <ds:schemaRefs>

--- a/ClassProject/EVRegistrations.xlsx
+++ b/ClassProject/EVRegistrations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarter/Code/SavvyCoders/activities/ClassProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A8ADA2-C77D-DE42-91D5-F734BC4E211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EB8224-2320-D747-B3F9-42F50629262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="500" windowWidth="28140" windowHeight="15780" activeTab="1" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="28140" windowHeight="15780" activeTab="1" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="EV Registration Counts in 2022" sheetId="3" r:id="rId1"/>
@@ -404,9 +404,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -599,6 +600,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -611,12 +617,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2422,157 +2423,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1.8120762740888869</c:v>
+                  <c:v>1.8120762740888867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>728.3</c:v>
+                  <c:v>2.7049292873815736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6561.5159999999996</c:v>
+                  <c:v>10.025122243091383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2947.0360000000001</c:v>
+                  <c:v>1.7441252838445136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38066.92</c:v>
+                  <c:v>23.737670397289826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5197.58</c:v>
+                  <c:v>11.526518110351356</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3592.0529999999999</c:v>
+                  <c:v>6.1329830044267171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>917.06</c:v>
+                  <c:v>5.8774780276099712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>633.73599999999999</c:v>
+                  <c:v>9.2467525909842578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19361.792000000001</c:v>
+                  <c:v>8.67636631981172</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9907.7559999999994</c:v>
+                  <c:v>6.0679734139597299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1392.704</c:v>
+                  <c:v>14.18822664399614</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1599.4639999999999</c:v>
+                  <c:v>3.713744104274932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12868.746999999999</c:v>
+                  <c:v>5.197087175620128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6542.4110000000001</c:v>
+                  <c:v>2.7069531400580003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3078.116</c:v>
+                  <c:v>2.020716568186514</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2882.9459999999999</c:v>
+                  <c:v>2.6188489135765987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4383.2719999999999</c:v>
+                  <c:v>1.7247389621269227</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4601.049</c:v>
+                  <c:v>1.2779694369696997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1328.5350000000001</c:v>
+                  <c:v>3.7560169660565963</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5887.7759999999998</c:v>
+                  <c:v>7.8229878310587893</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6657.2910000000002</c:v>
+                  <c:v>7.4264441797722229</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9889.0239999999994</c:v>
+                  <c:v>3.3522013901472985</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5383.6610000000001</c:v>
+                  <c:v>4.5192295725901017</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2984.3449999999998</c:v>
+                  <c:v>0.81089820379346222</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6028.076</c:v>
+                  <c:v>2.9644616292163537</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1006.37</c:v>
+                  <c:v>3.2393652433995448</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1855.617</c:v>
+                  <c:v>2.4627926991399627</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2761.5839999999998</c:v>
+                  <c:v>11.93155812026721</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1321.069</c:v>
+                  <c:v>5.291169499852014</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8874.3739999999998</c:v>
+                  <c:v>9.8068889140800248</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2080.085</c:v>
+                  <c:v>3.4037070600480273</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19594.330000000002</c:v>
+                  <c:v>4.3211480055709997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9750.4050000000007</c:v>
+                  <c:v>4.6757032143793005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>704.92499999999995</c:v>
+                  <c:v>0.90789800333368798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11560.38</c:v>
+                  <c:v>2.9462699323032635</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3818.8510000000001</c:v>
+                  <c:v>4.2656809600584049</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3900.3429999999998</c:v>
+                  <c:v>12.045094495535393</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12758.728999999999</c:v>
+                  <c:v>3.7182387054384494</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1053.252</c:v>
+                  <c:v>4.1205713352550006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4727.2730000000001</c:v>
+                  <c:v>2.85365368151998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>834.70799999999997</c:v>
+                  <c:v>1.4016877758449662</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6451.3649999999998</c:v>
+                  <c:v>3.4163312725291473</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26092.032999999999</c:v>
+                  <c:v>5.7105554021030098</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2858.1109999999999</c:v>
+                  <c:v>9.8141744669818625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>626.35799999999995</c:v>
+                  <c:v>8.3977533614961413</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8185.1310000000003</c:v>
+                  <c:v>6.9161996307695013</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6899.1229999999996</c:v>
+                  <c:v>15.081627041581951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1853.8810000000001</c:v>
+                  <c:v>1.008694732833445</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5724.692</c:v>
+                  <c:v>2.7425056230099369</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>575.25099999999998</c:v>
+                  <c:v>1.4602321421431688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4914,10 +4915,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:39" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -5233,10 +5234,10 @@
       <c r="C37" s="15">
         <v>45590</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="23"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -5250,23 +5251,23 @@
       <c r="C38" s="15">
         <v>640</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
@@ -5300,21 +5301,21 @@
       <c r="C41" s="15">
         <v>46980</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
@@ -5323,12 +5324,12 @@
       <c r="C42" s="15">
         <v>47440</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
@@ -5337,25 +5338,25 @@
       <c r="C43" s="15">
         <v>4340</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
@@ -5372,15 +5373,15 @@
       <c r="C45" s="15">
         <v>1170</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
@@ -5389,15 +5390,15 @@
       <c r="C46" s="15">
         <v>22040</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.2">
@@ -5517,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C01EF95-8C29-5540-91D1-2FB9F8A14090}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5529,10 +5530,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5541,13 +5542,13 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="19" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5558,16 +5559,16 @@
       <c r="B3" s="15">
         <v>8730</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.8120762740888867E-3</v>
       </c>
-      <c r="E3" s="24">
-        <f>Table232[[#This Row],[Registration Count]]/(Table232[[#This Row],[State  Pop. ]]/1000)</f>
-        <v>1.8120762740888869</v>
+      <c r="E3" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>1.8120762740888867</v>
       </c>
       <c r="I3" t="s">
         <v>63</v>
@@ -5584,16 +5585,16 @@
       <c r="B4" s="15">
         <v>1970</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.7049292873815734E-3</v>
       </c>
-      <c r="E4" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>728.3</v>
+      <c r="E4" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>2.7049292873815736</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
@@ -5610,16 +5611,16 @@
       <c r="B5" s="15">
         <v>65780</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.0025122243091383E-2</v>
       </c>
-      <c r="E5" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>6561.5159999999996</v>
+      <c r="E5" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>10.025122243091383</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
@@ -5636,16 +5637,16 @@
       <c r="B6" s="15">
         <v>5140</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.7441252838445137E-3</v>
       </c>
-      <c r="E6" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>2947.0360000000001</v>
+      <c r="E6" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>1.7441252838445136</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -5655,16 +5656,16 @@
       <c r="B7" s="15">
         <v>903620</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.3737670397289825E-2</v>
       </c>
-      <c r="E7" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>38066.92</v>
+      <c r="E7" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>23.737670397289826</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -5674,16 +5675,16 @@
       <c r="B8" s="15">
         <v>59910</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.1526518110351356E-2</v>
       </c>
-      <c r="E8" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>5197.58</v>
+      <c r="E8" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>11.526518110351356</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -5693,16 +5694,16 @@
       <c r="B9" s="15">
         <v>22030</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>6.1329830044267166E-3</v>
       </c>
-      <c r="E9" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>3592.0529999999999</v>
+      <c r="E9" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>6.1329830044267171</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -5712,16 +5713,16 @@
       <c r="B10" s="15">
         <v>5390</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>5.8774780276099709E-3</v>
       </c>
-      <c r="E10" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>917.06</v>
+      <c r="E10" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>5.8774780276099712</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -5731,16 +5732,16 @@
       <c r="B11" s="15">
         <v>5860</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>9.2467525909842585E-3</v>
       </c>
-      <c r="E11" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>633.73599999999999</v>
+      <c r="E11" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>9.2467525909842578</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -5750,16 +5751,16 @@
       <c r="B12" s="15">
         <v>167990</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>8.6763663198117201E-3</v>
       </c>
-      <c r="E12" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>19361.792000000001</v>
+      <c r="E12" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>8.67636631981172</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -5769,16 +5770,16 @@
       <c r="B13" s="15">
         <v>60120</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>6.0679734139597302E-3</v>
       </c>
-      <c r="E13" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>9907.7559999999994</v>
+      <c r="E13" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>6.0679734139597299</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -5788,16 +5789,16 @@
       <c r="B14" s="15">
         <v>19760</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.4188226643996139E-2</v>
       </c>
-      <c r="E14" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>1392.704</v>
+      <c r="E14" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>14.18822664399614</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -5807,16 +5808,16 @@
       <c r="B15" s="15">
         <v>5940</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>3.7137441042749322E-3</v>
       </c>
-      <c r="E15" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>1599.4639999999999</v>
+      <c r="E15" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>3.713744104274932</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -5826,16 +5827,16 @@
       <c r="B16" s="15">
         <v>66880</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>5.1970871756201282E-3</v>
       </c>
-      <c r="E16" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>12868.746999999999</v>
+      <c r="E16" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>5.197087175620128</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5845,16 +5846,16 @@
       <c r="B17" s="15">
         <v>17710</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.7069531400580001E-3</v>
       </c>
-      <c r="E17" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>6542.4110000000001</v>
+      <c r="E17" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>2.7069531400580003</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5864,16 +5865,16 @@
       <c r="B18" s="15">
         <v>6220</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.020716568186514E-3</v>
       </c>
-      <c r="E18" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>3078.116</v>
+      <c r="E18" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>2.020716568186514</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -5883,16 +5884,16 @@
       <c r="B19" s="15">
         <v>7550</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.6188489135765985E-3</v>
       </c>
-      <c r="E19" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>2882.9459999999999</v>
+      <c r="E19" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>2.6188489135765987</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -5902,16 +5903,16 @@
       <c r="B20" s="15">
         <v>7560</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.7247389621269226E-3</v>
       </c>
-      <c r="E20" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>4383.2719999999999</v>
+      <c r="E20" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>1.7247389621269227</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -5921,16 +5922,16 @@
       <c r="B21" s="15">
         <v>5880</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.2779694369696997E-3</v>
       </c>
-      <c r="E21" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>4601.049</v>
+      <c r="E21" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>1.2779694369696997</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -5940,16 +5941,16 @@
       <c r="B22" s="15">
         <v>4990</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>3.7560169660565963E-3</v>
       </c>
-      <c r="E22" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>1328.5350000000001</v>
+      <c r="E22" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>3.7560169660565963</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -5959,16 +5960,16 @@
       <c r="B23" s="15">
         <v>46060</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>7.8229878310587895E-3</v>
       </c>
-      <c r="E23" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>5887.7759999999998</v>
+      <c r="E23" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>7.8229878310587893</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -5978,16 +5979,16 @@
       <c r="B24" s="15">
         <v>49440</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D24" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>7.4264441797722231E-3</v>
       </c>
-      <c r="E24" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>6657.2910000000002</v>
+      <c r="E24" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>7.4264441797722229</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -5997,16 +5998,16 @@
       <c r="B25" s="15">
         <v>33150</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>3.3522013901472985E-3</v>
       </c>
-      <c r="E25" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>9889.0239999999994</v>
+      <c r="E25" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>3.3522013901472985</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6016,16 +6017,16 @@
       <c r="B26" s="15">
         <v>24330</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>4.5192295725901017E-3</v>
       </c>
-      <c r="E26" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>5383.6610000000001</v>
+      <c r="E26" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>4.5192295725901017</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6035,16 +6036,16 @@
       <c r="B27" s="15">
         <v>2420</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D27" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>8.1089820379346225E-4</v>
       </c>
-      <c r="E27" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>2984.3449999999998</v>
+      <c r="E27" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>0.81089820379346222</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6054,16 +6055,16 @@
       <c r="B28" s="15">
         <v>17870</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.9644616292163538E-3</v>
       </c>
-      <c r="E28" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>6028.076</v>
+      <c r="E28" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>2.9644616292163537</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6073,16 +6074,16 @@
       <c r="B29" s="15">
         <v>3260</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>3.239365243399545E-3</v>
       </c>
-      <c r="E29" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>1006.37</v>
+      <c r="E29" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>3.2393652433995448</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6092,16 +6093,16 @@
       <c r="B30" s="15">
         <v>4570</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.4627926991399626E-3</v>
       </c>
-      <c r="E30" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>1855.617</v>
+      <c r="E30" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>2.4627926991399627</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6111,16 +6112,16 @@
       <c r="B31" s="15">
         <v>32950</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.1931558120267209E-2</v>
       </c>
-      <c r="E31" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>2761.5839999999998</v>
+      <c r="E31" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>11.93155812026721</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -6130,16 +6131,16 @@
       <c r="B32" s="15">
         <v>6990</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="20" t="s">
         <v>96</v>
       </c>
       <c r="D32" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>5.291169499852014E-3</v>
       </c>
-      <c r="E32" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>1321.069</v>
+      <c r="E32" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>5.291169499852014</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6149,16 +6150,16 @@
       <c r="B33" s="15">
         <v>87030</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="20" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>9.8068889140800249E-3</v>
       </c>
-      <c r="E33" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>8874.3739999999998</v>
+      <c r="E33" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>9.8068889140800248</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -6168,16 +6169,16 @@
       <c r="B34" s="15">
         <v>7080</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>3.4037070600480271E-3</v>
       </c>
-      <c r="E34" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>2080.085</v>
+      <c r="E34" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>3.4037070600480273</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -6187,16 +6188,16 @@
       <c r="B35" s="15">
         <v>84670</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="20" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>4.3211480055709997E-3</v>
       </c>
-      <c r="E35" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>19594.330000000002</v>
+      <c r="E35" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>4.3211480055709997</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -6206,16 +6207,16 @@
       <c r="B36" s="15">
         <v>45590</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="20" t="s">
         <v>100</v>
       </c>
       <c r="D36" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>4.6757032143793006E-3</v>
       </c>
-      <c r="E36" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>9750.4050000000007</v>
+      <c r="E36" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>4.6757032143793005</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6225,16 +6226,16 @@
       <c r="B37" s="15">
         <v>640</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D37" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>9.0789800333368801E-4</v>
       </c>
-      <c r="E37" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>704.92499999999995</v>
+      <c r="E37" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>0.90789800333368798</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6244,16 +6245,16 @@
       <c r="B38" s="15">
         <v>34060</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="20" t="s">
         <v>102</v>
       </c>
       <c r="D38" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.9462699323032633E-3</v>
       </c>
-      <c r="E38" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>11560.38</v>
+      <c r="E38" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>2.9462699323032635</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -6263,16 +6264,16 @@
       <c r="B39" s="15">
         <v>16290</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>4.2656809600584052E-3</v>
       </c>
-      <c r="E39" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>3818.8510000000001</v>
+      <c r="E39" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>4.2656809600584049</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6282,16 +6283,16 @@
       <c r="B40" s="15">
         <v>46980</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="20" t="s">
         <v>104</v>
       </c>
       <c r="D40" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.2045094495535393E-2</v>
       </c>
-      <c r="E40" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>3900.3429999999998</v>
+      <c r="E40" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>12.045094495535393</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -6301,16 +6302,16 @@
       <c r="B41" s="15">
         <v>47440</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="20" t="s">
         <v>105</v>
       </c>
       <c r="D41" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>3.7182387054384494E-3</v>
       </c>
-      <c r="E41" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>12758.728999999999</v>
+      <c r="E41" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>3.7182387054384494</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -6320,16 +6321,16 @@
       <c r="B42" s="15">
         <v>4340</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D42" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>4.1205713352550008E-3</v>
       </c>
-      <c r="E42" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>1053.252</v>
+      <c r="E42" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>4.1205713352550006</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -6339,16 +6340,16 @@
       <c r="B43" s="15">
         <v>13490</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="20" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.85365368151998E-3</v>
       </c>
-      <c r="E43" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>4727.2730000000001</v>
+      <c r="E43" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>2.85365368151998</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -6358,16 +6359,16 @@
       <c r="B44" s="15">
         <v>1170</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D44" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.4016877758449662E-3</v>
       </c>
-      <c r="E44" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>834.70799999999997</v>
+      <c r="E44" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>1.4016877758449662</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -6377,16 +6378,16 @@
       <c r="B45" s="15">
         <v>22040</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D45" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>3.4163312725291471E-3</v>
       </c>
-      <c r="E45" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>6451.3649999999998</v>
+      <c r="E45" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>3.4163312725291473</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -6396,16 +6397,16 @@
       <c r="B46" s="15">
         <v>149000</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D46" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>5.7105554021030097E-3</v>
       </c>
-      <c r="E46" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>26092.032999999999</v>
+      <c r="E46" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>5.7105554021030098</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -6415,16 +6416,16 @@
       <c r="B47" s="15">
         <v>28050</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="20" t="s">
         <v>111</v>
       </c>
       <c r="D47" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>9.8141744669818631E-3</v>
       </c>
-      <c r="E47" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>2858.1109999999999</v>
+      <c r="E47" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>9.8141744669818625</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -6434,16 +6435,16 @@
       <c r="B48" s="15">
         <v>5260</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="20" t="s">
         <v>112</v>
       </c>
       <c r="D48" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>8.3977533614961412E-3</v>
       </c>
-      <c r="E48" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>626.35799999999995</v>
+      <c r="E48" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>8.3977533614961413</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -6453,16 +6454,16 @@
       <c r="B49" s="15">
         <v>56610</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>6.9161996307695013E-3</v>
       </c>
-      <c r="E49" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>8185.1310000000003</v>
+      <c r="E49" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>6.9161996307695013</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -6472,16 +6473,16 @@
       <c r="B50" s="15">
         <v>104050</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.5081627041581952E-2</v>
       </c>
-      <c r="E50" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>6899.1229999999996</v>
+      <c r="E50" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>15.081627041581951</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -6491,16 +6492,16 @@
       <c r="B51" s="15">
         <v>1870</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D51" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.0086947328334451E-3</v>
       </c>
-      <c r="E51" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>1853.8810000000001</v>
+      <c r="E51" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>1.008694732833445</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -6510,16 +6511,16 @@
       <c r="B52" s="15">
         <v>15700</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="20" t="s">
         <v>116</v>
       </c>
       <c r="D52" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>2.7425056230099367E-3</v>
       </c>
-      <c r="E52" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>5724.692</v>
+      <c r="E52" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>2.7425056230099369</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -6529,16 +6530,16 @@
       <c r="B53" s="15">
         <v>840</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D53" s="27">
         <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
         <v>1.4602321421431689E-3</v>
       </c>
-      <c r="E53" s="24">
-        <f>Table232[[#This Row],[State  Pop. ]]/1000</f>
-        <v>575.25099999999998</v>
+      <c r="E53" s="18">
+        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
+        <v>1.4602321421431688</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -6549,9 +6550,9 @@
         <f>SUM(B3:B53)</f>
         <v>2442270</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6591,10 +6592,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -7024,6 +7025,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C64A56E9F85AC84187966BAEAF7CF07F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b4c727a553e750e34f13bc08f769772">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1b167cac-9da6-43f0-b7e7-4775de4a2f66" xmlns:ns3="9073c3f8-2855-48ea-b895-d99d76b52c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67fa4f4e55873e847db25c6735f4e3ac" ns2:_="" ns3:_="">
     <xsd:import namespace="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
@@ -7188,36 +7204,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{295CFC91-E0F1-4E53-9BAF-976A902BC7AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
-    <ds:schemaRef ds:uri="9073c3f8-2855-48ea-b895-d99d76b52c59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7239,9 +7229,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{295CFC91-E0F1-4E53-9BAF-976A902BC7AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
+    <ds:schemaRef ds:uri="9073c3f8-2855-48ea-b895-d99d76b52c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ClassProject/EVRegistrations.xlsx
+++ b/ClassProject/EVRegistrations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarter/Code/SavvyCoders/activities/ClassProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EB8224-2320-D747-B3F9-42F50629262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BFBBD4-0A31-7441-9D5A-5CD8E6CB7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="500" windowWidth="28140" windowHeight="15780" activeTab="1" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
   <si>
     <t>Electric Vehicle Registrations by State</t>
   </si>
@@ -238,178 +238,27 @@
     <t>Avg. Registration</t>
   </si>
   <si>
-    <t xml:space="preserve">State  Pop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,817,678</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 728,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,561,516</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,947,036</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38,066,920</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,197,580</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,592,053</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 917,060</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 633,736</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19,361,792</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,907,756</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,392,704</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,599,464</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12,868,747</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,542,411</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,078,116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,882,946</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,383,272</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,601,049</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,328,535</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,887,776</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,657,291</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,889,024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,383,661</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,984,345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,028,076</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,006,370</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,855,617</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,761,584</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,321,069</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,874,374</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,080,085</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19,594,330</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9,750,405</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 704,925</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11,560,380</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,818,851</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,900,343</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12,758,729</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,053,252</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,727,273</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 834,708</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,451,365</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26,092,033</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,858,111</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 626,358</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,185,131</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,899,123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,853,881</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,724,692</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 575,251</t>
-  </si>
-  <si>
     <t># EV / Pop</t>
   </si>
   <si>
     <t>per 1000</t>
+  </si>
+  <si>
+    <t>state registration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="#,##0_);[Red]\(#,##0\);\—_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +320,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -480,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -573,13 +427,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="double">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -602,9 +501,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -617,14 +514,41 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="3" xr:uid="{0C01C17C-2B0E-C24D-AB79-7E41F8FF1EF5}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2423,157 +2347,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1.8120762740888867</c:v>
+                  <c:v>4.2396361451938818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7049292873815736</c:v>
+                  <c:v>13.962386092623451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.025122243091383</c:v>
+                  <c:v>29.125686414044193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7441252838445136</c:v>
+                  <c:v>5.3617663782069798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.737670397289826</c:v>
+                  <c:v>63.329587525252656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.526518110351356</c:v>
+                  <c:v>40.038502779659254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1329830044267171</c:v>
+                  <c:v>19.682337090316796</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8774780276099712</c:v>
+                  <c:v>30.284293187480866</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2467525909842578</c:v>
+                  <c:v>29.410363860495508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.67636631981172</c:v>
+                  <c:v>21.389157629796639</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0679734139597299</c:v>
+                  <c:v>17.054619793893853</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.18822664399614</c:v>
+                  <c:v>42.597820239576677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.713744104274932</c:v>
+                  <c:v>10.421703463954694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.197087175620128</c:v>
+                  <c:v>16.242513198413501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7069531400580003</c:v>
+                  <c:v>8.5781221116206172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.020716568186514</c:v>
+                  <c:v>5.5090025182639</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.6188489135765987</c:v>
+                  <c:v>8.8099180636590688</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7247389621269227</c:v>
+                  <c:v>4.8231667519762098</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2779694369696997</c:v>
+                  <c:v>4.5955399845895242</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7560169660565963</c:v>
+                  <c:v>12.003139932803261</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8229878310587893</c:v>
+                  <c:v>22.182694343002662</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.4264441797722229</c:v>
+                  <c:v>24.96423150391799</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3522013901472985</c:v>
+                  <c:v>11.451456864413833</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5192295725901017</c:v>
+                  <c:v>14.063606616148654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.81089820379346222</c:v>
+                  <c:v>2.7081521419858432</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9644616292163537</c:v>
+                  <c:v>9.3243044721033659</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2393652433995448</c:v>
+                  <c:v>7.0311512930665829</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4627926991399627</c:v>
+                  <c:v>7.5549710461805226</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.93155812026721</c:v>
+                  <c:v>31.330921747894447</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.291169499852014</c:v>
+                  <c:v>15.257311765293824</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.8068889140800248</c:v>
+                  <c:v>34.327999332157709</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.4037070600480273</c:v>
+                  <c:v>11.425073267183166</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.3211480055709997</c:v>
+                  <c:v>27.207324666200023</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.6757032143793005</c:v>
+                  <c:v>13.897326540742567</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.90789800333368798</c:v>
+                  <c:v>3.0147183385925591</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.9462699323032635</c:v>
+                  <c:v>8.3347181725519324</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.2656809600584049</c:v>
+                  <c:v>15.420783225585426</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.045094495535393</c:v>
+                  <c:v>34.617259336484402</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.7182387054384494</c:v>
+                  <c:v>12.109497392405817</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.1205713352550006</c:v>
+                  <c:v>12.826931718179642</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.85365368151998</c:v>
+                  <c:v>7.0277649070598809</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4016877758449662</c:v>
+                  <c:v>3.6827590458190413</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.4163312725291473</c:v>
+                  <c:v>9.3925255542716855</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.7105554021030098</c:v>
+                  <c:v>19.141665300287258</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.8141744669818625</c:v>
+                  <c:v>28.311703705056004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.3977533614961413</c:v>
+                  <c:v>29.218083237074872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.9161996307695013</c:v>
+                  <c:v>19.006907450318586</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15.081627041581951</c:v>
+                  <c:v>34.95042472602978</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.008694732833445</c:v>
+                  <c:v>5.2026867984156544</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.7425056230099369</c:v>
+                  <c:v>8.6006210749711247</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.4602321421431688</c:v>
+                  <c:v>4.5020262055882174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4576,26 +4500,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FD5192E-B4A3-DE42-A7C7-FB382F473F10}" name="Table23" displayName="Table23" ref="B3:C55" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FD5192E-B4A3-DE42-A7C7-FB382F473F10}" name="Table23" displayName="Table23" ref="B3:C55" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{E372532D-07D0-D343-9505-E0B83346A8CC}" name="State" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{1DA5ED27-5F98-7F4E-951C-E6D01E88025E}" name="Registration Count" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{E372532D-07D0-D343-9505-E0B83346A8CC}" name="State" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{1DA5ED27-5F98-7F4E-951C-E6D01E88025E}" name="Registration Count" dataDxfId="14" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{757A1EF0-090A-E340-B6EE-11803E605BB4}" name="Table232" displayName="Table232" ref="A2:E54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{757A1EF0-090A-E340-B6EE-11803E605BB4}" name="Table232" displayName="Table232" ref="A2:E54" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{49885A0E-A6CB-B449-879B-282E6FEF803D}" name="State" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B55EE516-13C6-9544-873C-342C0FAFFDFC}" name="Registration Count" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{BF5B8A3E-0648-F746-9C0C-E14FB244DD71}" name="State  Pop. " dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3C47E616-0A43-F449-8BB7-37442359E695}" name="# EV / Pop" dataDxfId="1">
-      <calculatedColumnFormula xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{49885A0E-A6CB-B449-879B-282E6FEF803D}" name="State" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B55EE516-13C6-9544-873C-342C0FAFFDFC}" name="Registration Count" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{BF5B8A3E-0648-F746-9C0C-E14FB244DD71}" name="state registration" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3C47E616-0A43-F449-8BB7-37442359E695}" name="# EV / Pop" dataDxfId="5">
+      <calculatedColumnFormula xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1870A35A-F37C-4F49-A4BC-5016557B7321}" name="per 1000" dataDxfId="0">
-      <calculatedColumnFormula>Table232[[#This Row],[State  Pop. ]]/1000</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{1870A35A-F37C-4F49-A4BC-5016557B7321}" name="per 1000" dataDxfId="4">
+      <calculatedColumnFormula>Table232[[#This Row],[state registration]]/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5518,8 +5442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C01EF95-8C29-5540-91D1-2FB9F8A14090}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5543,13 +5467,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="E2" s="19" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5559,16 +5483,16 @@
       <c r="B3" s="15">
         <v>8730</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.8120762740888867E-3</v>
+      <c r="C3" s="27">
+        <v>2059138.9687760035</v>
+      </c>
+      <c r="D3" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>4.2396361451938818E-3</v>
       </c>
       <c r="E3" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>1.8120762740888867</v>
+        <v>4.2396361451938818</v>
       </c>
       <c r="I3" t="s">
         <v>63</v>
@@ -5585,16 +5509,16 @@
       <c r="B4" s="15">
         <v>1970</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.7049292873815734E-3</v>
+      <c r="C4" s="28">
+        <v>141093.36233301714</v>
+      </c>
+      <c r="D4" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.3962386092623451E-2</v>
       </c>
       <c r="E4" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.7049292873815736</v>
+        <v>13.962386092623451</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
@@ -5611,16 +5535,16 @@
       <c r="B5" s="15">
         <v>65780</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.0025122243091383E-2</v>
+      <c r="C5" s="28">
+        <v>2258487.5448044846</v>
+      </c>
+      <c r="D5" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>2.9125686414044193E-2</v>
       </c>
       <c r="E5" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>10.025122243091383</v>
+        <v>29.125686414044193</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
@@ -5637,16 +5561,16 @@
       <c r="B6" s="15">
         <v>5140</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.7441252838445137E-3</v>
+      <c r="C6" s="29">
+        <v>958639.30604877626</v>
+      </c>
+      <c r="D6" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>5.3617663782069801E-3</v>
       </c>
       <c r="E6" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>1.7441252838445136</v>
+        <v>5.3617663782069798</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -5656,16 +5580,16 @@
       <c r="B7" s="15">
         <v>903620</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.3737670397289825E-2</v>
+      <c r="C7" s="28">
+        <v>14268528.113177458</v>
+      </c>
+      <c r="D7" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>6.3329587525252654E-2</v>
       </c>
       <c r="E7" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>23.737670397289826</v>
+        <v>63.329587525252656</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -5675,16 +5599,16 @@
       <c r="B8" s="15">
         <v>59910</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.1526518110351356E-2</v>
+      <c r="C8" s="28">
+        <v>1496309.6979349602</v>
+      </c>
+      <c r="D8" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>4.003850277965925E-2</v>
       </c>
       <c r="E8" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>11.526518110351356</v>
+        <v>40.038502779659254</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -5694,16 +5618,16 @@
       <c r="B9" s="15">
         <v>22030</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>6.1329830044267166E-3</v>
+      <c r="C9" s="28">
+        <v>1119277.6497481181</v>
+      </c>
+      <c r="D9" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.9682337090316797E-2</v>
       </c>
       <c r="E9" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>6.1329830044267171</v>
+        <v>19.682337090316796</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -5713,16 +5637,16 @@
       <c r="B10" s="15">
         <v>5390</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>5.8774780276099709E-3</v>
+      <c r="C10" s="30">
+        <v>177980.04948083634</v>
+      </c>
+      <c r="D10" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>3.0284293187480868E-2</v>
       </c>
       <c r="E10" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>5.8774780276099712</v>
+        <v>30.284293187480866</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -5732,16 +5656,16 @@
       <c r="B11" s="15">
         <v>5860</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>9.2467525909842585E-3</v>
+      <c r="C11" s="27">
+        <v>199249.49000278267</v>
+      </c>
+      <c r="D11" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>2.9410363860495507E-2</v>
       </c>
       <c r="E11" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>9.2467525909842578</v>
+        <v>29.410363860495508</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -5751,16 +5675,16 @@
       <c r="B12" s="15">
         <v>167990</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>8.6763663198117201E-3</v>
+      <c r="C12" s="28">
+        <v>7853979.2406774275</v>
+      </c>
+      <c r="D12" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>2.1389157629796637E-2</v>
       </c>
       <c r="E12" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>8.67636631981172</v>
+        <v>21.389157629796639</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -5770,16 +5694,16 @@
       <c r="B13" s="15">
         <v>60120</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>6.0679734139597302E-3</v>
+      <c r="C13" s="28">
+        <v>3525144.5488995919</v>
+      </c>
+      <c r="D13" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.7054619793893853E-2</v>
       </c>
       <c r="E13" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>6.0679734139597299</v>
+        <v>17.054619793893853</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -5789,16 +5713,16 @@
       <c r="B14" s="15">
         <v>19760</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.4188226643996139E-2</v>
+      <c r="C14" s="31">
+        <v>463873.50077695824</v>
+      </c>
+      <c r="D14" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>4.2597820239576679E-2</v>
       </c>
       <c r="E14" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>14.18822664399614</v>
+        <v>42.597820239576677</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -5808,16 +5732,16 @@
       <c r="B15" s="15">
         <v>5940</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>3.7137441042749322E-3</v>
+      <c r="C15" s="28">
+        <v>569964.40366438578</v>
+      </c>
+      <c r="D15" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.0421703463954693E-2</v>
       </c>
       <c r="E15" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>3.713744104274932</v>
+        <v>10.421703463954694</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -5827,16 +5751,16 @@
       <c r="B16" s="15">
         <v>66880</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>5.1970871756201282E-3</v>
+      <c r="C16" s="28">
+        <v>4117589.389216722</v>
+      </c>
+      <c r="D16" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.6242513198413501E-2</v>
       </c>
       <c r="E16" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>5.197087175620128</v>
+        <v>16.242513198413501</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5846,16 +5770,16 @@
       <c r="B17" s="15">
         <v>17710</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.7069531400580001E-3</v>
+      <c r="C17" s="28">
+        <v>2064554.4292274183</v>
+      </c>
+      <c r="D17" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>8.5781221116206178E-3</v>
       </c>
       <c r="E17" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.7069531400580003</v>
+        <v>8.5781221116206172</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5865,16 +5789,16 @@
       <c r="B18" s="15">
         <v>6220</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.020716568186514E-3</v>
+      <c r="C18" s="31">
+        <v>1129061.0195546185</v>
+      </c>
+      <c r="D18" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>5.5090025182639004E-3</v>
       </c>
       <c r="E18" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.020716568186514</v>
+        <v>5.5090025182639</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -5884,16 +5808,16 @@
       <c r="B19" s="15">
         <v>7550</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.6188489135765985E-3</v>
+      <c r="C19" s="27">
+        <v>856988.6740653998</v>
+      </c>
+      <c r="D19" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>8.8099180636590693E-3</v>
       </c>
       <c r="E19" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.6188489135765987</v>
+        <v>8.8099180636590688</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -5903,16 +5827,16 @@
       <c r="B20" s="15">
         <v>7560</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.7247389621269226E-3</v>
+      <c r="C20" s="28">
+        <v>1567434.9216523396</v>
+      </c>
+      <c r="D20" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>4.8231667519762099E-3</v>
       </c>
       <c r="E20" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>1.7247389621269227</v>
+        <v>4.8231667519762098</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -5922,16 +5846,16 @@
       <c r="B21" s="15">
         <v>5880</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.2779694369696997E-3</v>
+      <c r="C21" s="27">
+        <v>1279501.4339376276</v>
+      </c>
+      <c r="D21" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>4.5955399845895245E-3</v>
       </c>
       <c r="E21" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>1.2779694369696997</v>
+        <v>4.5955399845895242</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -5941,16 +5865,16 @@
       <c r="B22" s="15">
         <v>4990</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>3.7560169660565963E-3</v>
+      <c r="C22" s="29">
+        <v>415724.55440287577</v>
+      </c>
+      <c r="D22" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.2003139932803261E-2</v>
       </c>
       <c r="E22" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>3.7560169660565963</v>
+        <v>12.003139932803261</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -5960,16 +5884,16 @@
       <c r="B23" s="15">
         <v>46060</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>7.8229878310587895E-3</v>
+      <c r="C23" s="28">
+        <v>2076393.394228471</v>
+      </c>
+      <c r="D23" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>2.2182694343002664E-2</v>
       </c>
       <c r="E23" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>7.8229878310587893</v>
+        <v>22.182694343002662</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -5979,16 +5903,16 @@
       <c r="B24" s="15">
         <v>49440</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>7.4264441797722231E-3</v>
+      <c r="C24" s="32">
+        <v>1980433.4850940907</v>
+      </c>
+      <c r="D24" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>2.4964231503917991E-2</v>
       </c>
       <c r="E24" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>7.4264441797722229</v>
+        <v>24.96423150391799</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -5998,16 +5922,16 @@
       <c r="B25" s="15">
         <v>33150</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>3.3522013901472985E-3</v>
+      <c r="C25" s="27">
+        <v>2894828.1771043334</v>
+      </c>
+      <c r="D25" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.1451456864413833E-2</v>
       </c>
       <c r="E25" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>3.3522013901472985</v>
+        <v>11.451456864413833</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6017,16 +5941,16 @@
       <c r="B26" s="15">
         <v>24330</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>4.5192295725901017E-3</v>
+      <c r="C26" s="30">
+        <v>1729997.195176298</v>
+      </c>
+      <c r="D26" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.4063606616148654E-2</v>
       </c>
       <c r="E26" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>4.5192295725901017</v>
+        <v>14.063606616148654</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6036,16 +5960,16 @@
       <c r="B27" s="15">
         <v>2420</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>8.1089820379346225E-4</v>
+      <c r="C27" s="28">
+        <v>893598.24453047675</v>
+      </c>
+      <c r="D27" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>2.7081521419858434E-3</v>
       </c>
       <c r="E27" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>0.81089820379346222</v>
+        <v>2.7081521419858432</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6055,16 +5979,16 @@
       <c r="B28" s="15">
         <v>17870</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.9644616292163538E-3</v>
+      <c r="C28" s="27">
+        <v>1916496.8339959097</v>
+      </c>
+      <c r="D28" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>9.3243044721033654E-3</v>
       </c>
       <c r="E28" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.9644616292163537</v>
+        <v>9.3243044721033659</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6074,16 +5998,16 @@
       <c r="B29" s="15">
         <v>3260</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>3.239365243399545E-3</v>
+      <c r="C29" s="28">
+        <v>463650.95332462632</v>
+      </c>
+      <c r="D29" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>7.0311512930665825E-3</v>
       </c>
       <c r="E29" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>3.2393652433995448</v>
+        <v>7.0311512930665829</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6093,16 +6017,16 @@
       <c r="B30" s="15">
         <v>4570</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.4627926991399626E-3</v>
+      <c r="C30" s="31">
+        <v>604899.73714861565</v>
+      </c>
+      <c r="D30" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>7.5549710461805227E-3</v>
       </c>
       <c r="E30" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.4627926991399627</v>
+        <v>7.5549710461805226</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6112,16 +6036,16 @@
       <c r="B31" s="15">
         <v>32950</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.1931558120267209E-2</v>
+      <c r="C31" s="33">
+        <v>1051676.6874952973</v>
+      </c>
+      <c r="D31" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>3.1330921747894445E-2</v>
       </c>
       <c r="E31" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>11.93155812026721</v>
+        <v>31.330921747894447</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -6131,16 +6055,16 @@
       <c r="B32" s="15">
         <v>6990</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>5.291169499852014E-3</v>
+      <c r="C32" s="27">
+        <v>458140.99544720072</v>
+      </c>
+      <c r="D32" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.5257311765293824E-2</v>
       </c>
       <c r="E32" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>5.291169499852014</v>
+        <v>15.257311765293824</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6150,16 +6074,16 @@
       <c r="B33" s="15">
         <v>87030</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>9.8068889140800249E-3</v>
+      <c r="C33" s="28">
+        <v>2535248.2432167907</v>
+      </c>
+      <c r="D33" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>3.4327999332157709E-2</v>
       </c>
       <c r="E33" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>9.8068889140800248</v>
+        <v>34.327999332157709</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -6169,16 +6093,16 @@
       <c r="B34" s="15">
         <v>7080</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>3.4037070600480271E-3</v>
+      <c r="C34" s="31">
+        <v>619689.68026981968</v>
+      </c>
+      <c r="D34" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.1425073267183165E-2</v>
       </c>
       <c r="E34" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>3.4037070600480273</v>
+        <v>11.425073267183166</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -6188,16 +6112,16 @@
       <c r="B35" s="15">
         <v>84670</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>4.3211480055709997E-3</v>
+      <c r="C35" s="28">
+        <v>3112029.6110990481</v>
+      </c>
+      <c r="D35" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>2.7207324666200024E-2</v>
       </c>
       <c r="E35" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>4.3211480055709997</v>
+        <v>27.207324666200023</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -6207,16 +6131,16 @@
       <c r="B36" s="15">
         <v>45590</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>4.6757032143793006E-3</v>
+      <c r="C36" s="28">
+        <v>3280487.068238955</v>
+      </c>
+      <c r="D36" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.3897326540742567E-2</v>
       </c>
       <c r="E36" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>4.6757032143793005</v>
+        <v>13.897326540742567</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -6226,16 +6150,16 @@
       <c r="B37" s="15">
         <v>640</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>9.0789800333368801E-4</v>
+      <c r="C37" s="28">
+        <v>212291.80577406386</v>
+      </c>
+      <c r="D37" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>3.0147183385925589E-3</v>
       </c>
       <c r="E37" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>0.90789800333368798</v>
+        <v>3.0147183385925591</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6245,16 +6169,16 @@
       <c r="B38" s="15">
         <v>34060</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.9462699323032633E-3</v>
+      <c r="C38" s="31">
+        <v>4086520.8990709609</v>
+      </c>
+      <c r="D38" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>8.3347181725519325E-3</v>
       </c>
       <c r="E38" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.9462699323032635</v>
+        <v>8.3347181725519324</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -6264,16 +6188,16 @@
       <c r="B39" s="15">
         <v>16290</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>4.2656809600584052E-3</v>
+      <c r="C39" s="28">
+        <v>1056366.5776049825</v>
+      </c>
+      <c r="D39" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.5420783225585426E-2</v>
       </c>
       <c r="E39" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>4.2656809600584049</v>
+        <v>15.420783225585426</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6283,16 +6207,16 @@
       <c r="B40" s="15">
         <v>46980</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.2045094495535393E-2</v>
+      <c r="C40" s="28">
+        <v>1357126.4999157819</v>
+      </c>
+      <c r="D40" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>3.46172593364844E-2</v>
       </c>
       <c r="E40" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>12.045094495535393</v>
+        <v>34.617259336484402</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -6302,16 +6226,16 @@
       <c r="B41" s="15">
         <v>47440</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>3.7182387054384494E-3</v>
+      <c r="C41" s="28">
+        <v>3917586.210452538</v>
+      </c>
+      <c r="D41" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.2109497392405818E-2</v>
       </c>
       <c r="E41" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>3.7182387054384494</v>
+        <v>12.109497392405817</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -6321,16 +6245,16 @@
       <c r="B42" s="15">
         <v>4340</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>4.1205713352550008E-3</v>
+      <c r="C42" s="31">
+        <v>338350.5966472798</v>
+      </c>
+      <c r="D42" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.2826931718179642E-2</v>
       </c>
       <c r="E42" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>4.1205713352550006</v>
+        <v>12.826931718179642</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -6340,16 +6264,16 @@
       <c r="B43" s="15">
         <v>13490</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.85365368151998E-3</v>
+      <c r="C43" s="28">
+        <v>1919529.2071378701</v>
+      </c>
+      <c r="D43" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>7.0277649070598809E-3</v>
       </c>
       <c r="E43" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.85365368151998</v>
+        <v>7.0277649070598809</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -6359,16 +6283,16 @@
       <c r="B44" s="15">
         <v>1170</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.4016877758449662E-3</v>
+      <c r="C44" s="27">
+        <v>317696.59253930184</v>
+      </c>
+      <c r="D44" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>3.6827590458190411E-3</v>
       </c>
       <c r="E44" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>1.4016877758449662</v>
+        <v>3.6827590458190413</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -6378,16 +6302,16 @@
       <c r="B45" s="15">
         <v>22040</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>3.4163312725291471E-3</v>
+      <c r="C45" s="28">
+        <v>2346546.7166044912</v>
+      </c>
+      <c r="D45" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>9.3925255542716846E-3</v>
       </c>
       <c r="E45" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>3.4163312725291473</v>
+        <v>9.3925255542716855</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -6397,16 +6321,16 @@
       <c r="B46" s="15">
         <v>149000</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>5.7105554021030097E-3</v>
+      <c r="C46" s="31">
+        <v>7784066.7289153757</v>
+      </c>
+      <c r="D46" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.9141665300287259E-2</v>
       </c>
       <c r="E46" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>5.7105554021030098</v>
+        <v>19.141665300287258</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -6416,16 +6340,16 @@
       <c r="B47" s="15">
         <v>28050</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>9.8141744669818631E-3</v>
+      <c r="C47" s="28">
+        <v>990756.34204912698</v>
+      </c>
+      <c r="D47" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>2.8311703705056004E-2</v>
       </c>
       <c r="E47" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>9.8141744669818625</v>
+        <v>28.311703705056004</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -6435,16 +6359,16 @@
       <c r="B48" s="15">
         <v>5260</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>8.3977533614961412E-3</v>
+      <c r="C48" s="28">
+        <v>180025.49850106449</v>
+      </c>
+      <c r="D48" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>2.9218083237074872E-2</v>
       </c>
       <c r="E48" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>8.3977533614961413</v>
+        <v>29.218083237074872</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -6454,16 +6378,16 @@
       <c r="B49" s="15">
         <v>56610</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>6.9161996307695013E-3</v>
+      <c r="C49" s="28">
+        <v>2978390.8901524711</v>
+      </c>
+      <c r="D49" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>1.9006907450318584E-2</v>
       </c>
       <c r="E49" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>6.9161996307695013</v>
+        <v>19.006907450318586</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -6473,16 +6397,16 @@
       <c r="B50" s="15">
         <v>104050</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.5081627041581952E-2</v>
+      <c r="C50" s="31">
+        <v>2977073.9788036803</v>
+      </c>
+      <c r="D50" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>3.4950424726029779E-2</v>
       </c>
       <c r="E50" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>15.081627041581951</v>
+        <v>34.95042472602978</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -6492,16 +6416,16 @@
       <c r="B51" s="15">
         <v>1870</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.0086947328334451E-3</v>
+      <c r="C51" s="27">
+        <v>359429.67017915833</v>
+      </c>
+      <c r="D51" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>5.2026867984156545E-3</v>
       </c>
       <c r="E51" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>1.008694732833445</v>
+        <v>5.2026867984156544</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -6511,16 +6435,16 @@
       <c r="B52" s="15">
         <v>15700</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>2.7425056230099367E-3</v>
+      <c r="C52" s="28">
+        <v>1825449.5649958292</v>
+      </c>
+      <c r="D52" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>8.6006210749711241E-3</v>
       </c>
       <c r="E52" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.7425056230099369</v>
+        <v>8.6006210749711247</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -6530,16 +6454,16 @@
       <c r="B53" s="15">
         <v>840</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="27">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[State  Pop. ]]</f>
-        <v>1.4602321421431689E-3</v>
+      <c r="C53" s="27">
+        <v>186582.65448507064</v>
+      </c>
+      <c r="D53" s="20">
+        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
+        <v>4.5020262055882176E-3</v>
       </c>
       <c r="E53" s="18">
         <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>1.4602321421431688</v>
+        <v>4.5020262055882174</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -6558,6 +6482,26 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C4:C20">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C53">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -7025,21 +6969,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C64A56E9F85AC84187966BAEAF7CF07F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b4c727a553e750e34f13bc08f769772">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1b167cac-9da6-43f0-b7e7-4775de4a2f66" xmlns:ns3="9073c3f8-2855-48ea-b895-d99d76b52c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67fa4f4e55873e847db25c6735f4e3ac" ns2:_="" ns3:_="">
     <xsd:import namespace="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
@@ -7204,10 +7133,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{295CFC91-E0F1-4E53-9BAF-976A902BC7AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
+    <ds:schemaRef ds:uri="9073c3f8-2855-48ea-b895-d99d76b52c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7229,20 +7184,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{295CFC91-E0F1-4E53-9BAF-976A902BC7AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
-    <ds:schemaRef ds:uri="9073c3f8-2855-48ea-b895-d99d76b52c59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ClassProject/EVRegistrations.xlsx
+++ b/ClassProject/EVRegistrations.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarter/Code/SavvyCoders/activities/ClassProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m0573\Code\SavvyCoders\Activities\ClassProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BFBBD4-0A31-7441-9D5A-5CD8E6CB7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{78897551-C6CA-40EC-BCD6-2B3BEB028DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="500" windowWidth="28140" windowHeight="15780" activeTab="1" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CFC61F1-512C-4EE0-B8F8-E31B6CDAF2DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="EV Registration Counts in 2022" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="Condensed" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="EVRegistrations" sheetId="3" r:id="rId1"/>
+    <sheet name="Condensed" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>Electric Vehicle Registrations by State</t>
   </si>
@@ -229,22 +227,22 @@
     <t>Only all-electric vehicles are included in this chart; plug-in hybrid electric vehicles (PHEVs) are not included.</t>
   </si>
   <si>
-    <t>Max Registration</t>
-  </si>
-  <si>
-    <t>Min Registration</t>
-  </si>
-  <si>
-    <t>Avg. Registration</t>
-  </si>
-  <si>
-    <t># EV / Pop</t>
-  </si>
-  <si>
-    <t>per 1000</t>
-  </si>
-  <si>
-    <t>state registration</t>
+    <t>EVRegPer1000residents</t>
+  </si>
+  <si>
+    <t>EVRegPercTotalReg</t>
+  </si>
+  <si>
+    <t>EVper1000TotalReg</t>
+  </si>
+  <si>
+    <t>StatePopulations</t>
+  </si>
+  <si>
+    <t>TotalRegCount</t>
+  </si>
+  <si>
+    <t>EV Registration Count</t>
   </si>
 </sst>
 </file>
@@ -255,10 +253,10 @@
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_);[Red]\(#,##0\);\—_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_);[Red]\(#,##0\);\—_)"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +313,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="P-AVGARD"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <name val="P-AVGARD"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -334,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -414,69 +420,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="double">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -490,250 +444,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{3C024DA2-05CA-4D4F-BCD8-F795A193844D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2 4 2" xfId="3" xr:uid="{0C01C17C-2B0E-C24D-AB79-7E41F8FF1EF5}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{E7601616-FB89-4821-AA7B-78127F53C393}"/>
+    <cellStyle name="Normal 3 2 4 2" xfId="5" xr:uid="{205AECEA-B464-4CF8-9AEB-83CC376E319E}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{D7B50D99-6C3E-4FBE-9214-11941CBF138E}"/>
+    <cellStyle name="Normal 8 2" xfId="7" xr:uid="{E94E9704-C545-4CBC-A46F-256581C520F1}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="8" xr:uid="{3364B938-6BB6-4002-BAFE-D594109F0A97}"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <strike val="0"/>
@@ -924,7 +686,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Electric Vehicle Registrations by State</a:t>
+              <a:t>Electric Vehicle Registrations/1000 vehicles, by State</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -957,7 +719,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0858998528965707E-2"/>
+          <c:y val="7.1275389877145739E-2"/>
+          <c:w val="0.94374434785520411"/>
+          <c:h val="0.80106803273206628"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -967,11 +739,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EV Registration Counts in 2022'!$C$3</c:f>
+              <c:f>EVRegistrations!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Registration Count </c:v>
+                  <c:v>EVper1000TotalReg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -988,7 +760,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EV Registration Counts in 2022'!$B$4:$B$54</c:f>
+              <c:f>EVRegistrations!$A$2:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
@@ -1149,162 +921,162 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EV Registration Counts in 2022'!$C$4:$C$54</c:f>
+              <c:f>EVRegistrations!$G$2:$G$52</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>8730</c:v>
+                  <c:v>4.2396361451938818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1970</c:v>
+                  <c:v>13.962386092623451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65780</c:v>
+                  <c:v>29.125686414044193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5140</c:v>
+                  <c:v>5.3617663782069798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>903620</c:v>
+                  <c:v>63.329587525252656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59910</c:v>
+                  <c:v>40.038502779659254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22030</c:v>
+                  <c:v>19.682337090316796</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5390</c:v>
+                  <c:v>30.284293187480866</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5860</c:v>
+                  <c:v>29.410363860495508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167990</c:v>
+                  <c:v>21.389157629796639</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60120</c:v>
+                  <c:v>17.054619793893853</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19760</c:v>
+                  <c:v>42.597820239576677</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5940</c:v>
+                  <c:v>10.421703463954694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66880</c:v>
+                  <c:v>16.242513198413501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17710</c:v>
+                  <c:v>8.5781221116206172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6220</c:v>
+                  <c:v>5.5090025182639</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7550</c:v>
+                  <c:v>8.8099180636590688</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7560</c:v>
+                  <c:v>4.8231667519762098</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5880</c:v>
+                  <c:v>4.5955399845895242</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4990</c:v>
+                  <c:v>12.003139932803261</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46060</c:v>
+                  <c:v>22.182694343002662</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49440</c:v>
+                  <c:v>24.96423150391799</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33150</c:v>
+                  <c:v>11.451456864413833</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24330</c:v>
+                  <c:v>14.063606616148654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2420</c:v>
+                  <c:v>2.7081521419858432</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17870</c:v>
+                  <c:v>9.3243044721033659</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3260</c:v>
+                  <c:v>7.0311512930665829</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4570</c:v>
+                  <c:v>7.5549710461805226</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32950</c:v>
+                  <c:v>31.330921747894447</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6990</c:v>
+                  <c:v>15.257311765293824</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>87030</c:v>
+                  <c:v>34.327999332157709</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7080</c:v>
+                  <c:v>11.425073267183166</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>84670</c:v>
+                  <c:v>27.207324666200023</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45590</c:v>
+                  <c:v>13.897326540742567</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>640</c:v>
+                  <c:v>3.0147183385925591</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34060</c:v>
+                  <c:v>8.3347181725519324</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16290</c:v>
+                  <c:v>15.420783225585426</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46980</c:v>
+                  <c:v>34.617259336484402</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>47440</c:v>
+                  <c:v>12.109497392405817</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4340</c:v>
+                  <c:v>12.826931718179642</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13490</c:v>
+                  <c:v>7.0277649070598809</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1170</c:v>
+                  <c:v>3.6827590458190413</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22040</c:v>
+                  <c:v>9.3925255542716855</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>149000</c:v>
+                  <c:v>19.141665300287258</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28050</c:v>
+                  <c:v>28.311703705056004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5260</c:v>
+                  <c:v>29.218083237074872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>56610</c:v>
+                  <c:v>19.006907450318586</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>104050</c:v>
+                  <c:v>34.95042472602978</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1870</c:v>
+                  <c:v>5.2026867984156544</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15700</c:v>
+                  <c:v>8.6006210749711247</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>840</c:v>
+                  <c:v>4.5020262055882174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,7 +1152,6 @@
         <c:axId val="547433096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1420,7 +1191,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t> Registration Count</a:t>
+                  <a:t> EV Registration Count per 1000 vehicles</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1451,7 +1222,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1480,13 +1251,12 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="547433752"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="100000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1551,6 +1321,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Electric Vehicle Registrations/1000 residents, by State</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1564,12 +1360,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1582,7 +1375,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0858998528965707E-2"/>
+          <c:y val="7.1275389877145739E-2"/>
+          <c:w val="0.94374434785520411"/>
+          <c:h val="0.80106803273206628"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1592,11 +1395,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>EVRegistrations!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Registration Count </c:v>
+                  <c:v>EVRegPer1000residents</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1613,7 +1416,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>EVRegistrations!$A$2:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
@@ -1774,169 +1577,169 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$53</c:f>
+              <c:f>EVRegistrations!$E$2:$E$52</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>8730</c:v>
+                  <c:v>1.8120762740888867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1970</c:v>
+                  <c:v>2.7049292873815736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65780</c:v>
+                  <c:v>10.025122243091383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5140</c:v>
+                  <c:v>1.7441252838445136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>903620</c:v>
+                  <c:v>23.737670397289826</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59910</c:v>
+                  <c:v>11.526518110351356</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22030</c:v>
+                  <c:v>6.1329830044267171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5390</c:v>
+                  <c:v>5.8774780276099712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5860</c:v>
+                  <c:v>9.2467525909842578</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167990</c:v>
+                  <c:v>8.67636631981172</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60120</c:v>
+                  <c:v>6.0679734139597299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19760</c:v>
+                  <c:v>14.18822664399614</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5940</c:v>
+                  <c:v>3.713744104274932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66880</c:v>
+                  <c:v>5.197087175620128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17710</c:v>
+                  <c:v>2.7069531400580003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6220</c:v>
+                  <c:v>2.020716568186514</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7550</c:v>
+                  <c:v>2.6188489135765987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7560</c:v>
+                  <c:v>1.7247389621269227</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5880</c:v>
+                  <c:v>1.2779694369696997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4990</c:v>
+                  <c:v>3.7560169660565963</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46060</c:v>
+                  <c:v>7.8229878310587893</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49440</c:v>
+                  <c:v>7.4264441797722229</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33150</c:v>
+                  <c:v>3.3522013901472985</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24330</c:v>
+                  <c:v>4.5192295725901017</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2420</c:v>
+                  <c:v>0.81089820379346222</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17870</c:v>
+                  <c:v>2.9644616292163537</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3260</c:v>
+                  <c:v>3.2393652433995448</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4570</c:v>
+                  <c:v>2.4627926991399627</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32950</c:v>
+                  <c:v>11.93155812026721</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6990</c:v>
+                  <c:v>5.291169499852014</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>87030</c:v>
+                  <c:v>9.8068889140800248</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7080</c:v>
+                  <c:v>3.4037070600480273</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>84670</c:v>
+                  <c:v>4.3211480055709997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45590</c:v>
+                  <c:v>4.6757032143793005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>640</c:v>
+                  <c:v>0.90789800333368798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34060</c:v>
+                  <c:v>2.9462699323032635</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16290</c:v>
+                  <c:v>4.2656809600584049</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46980</c:v>
+                  <c:v>12.045094495535393</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>47440</c:v>
+                  <c:v>3.7182387054384494</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4340</c:v>
+                  <c:v>4.1205713352550006</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13490</c:v>
+                  <c:v>2.85365368151998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1170</c:v>
+                  <c:v>1.4016877758449662</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22040</c:v>
+                  <c:v>3.4163312725291473</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>149000</c:v>
+                  <c:v>5.7105554021030098</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28050</c:v>
+                  <c:v>9.8141744669818625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5260</c:v>
+                  <c:v>8.3977533614961413</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>56610</c:v>
+                  <c:v>6.9161996307695013</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>104050</c:v>
+                  <c:v>15.081627041581951</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1870</c:v>
+                  <c:v>1.008694732833445</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15700</c:v>
+                  <c:v>2.7425056230099369</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>840</c:v>
+                  <c:v>1.4602321421431688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7754-C04D-B297-B5C001A30988}"/>
+              <c16:uniqueId val="{00000000-4499-41AF-B56A-86C23DF84B80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1948,12 +1751,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1508625231"/>
-        <c:axId val="1508627503"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="547433752"/>
+        <c:axId val="547433096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1508625231"/>
+        <c:axId val="547433752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,12 +1785,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1996,15 +1797,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1508627503"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="547433096"/>
+        <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1508627503"/>
+        <c:axId val="547433096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +1825,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> EV Registration Count per 1000 residents</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2040,12 +1894,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2055,8 +1906,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1508625231"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="547433752"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2069,574 +1920,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Registration Count </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>Alabama</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Alaska</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Arizona</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arkansas</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>California</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Colorado</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Connecticut</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Delaware</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>District of Columbia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Florida</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Georgia</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Hawaii</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Idaho</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Illinois</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Indiana</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Iowa</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Kansas</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Kentucky</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Louisiana</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Maine</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Maryland</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Massachusetts</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Michigan</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Minnesota</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Mississippi</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Missouri</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Montana</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Nebraska</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Nevada</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>New Hampshire</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>New Jersey</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>New Mexico</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>New York</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>North Carolina</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>North Dakota</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Ohio</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Oklahoma</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Oregon</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Pennsylvania</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Rhode Island</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>South Carolina</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>South Dakota</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Tennessee</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Texas</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Utah</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Vermont</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Virginia</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Washington</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>West Virginia</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Wisconsin</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Wyoming</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>4.2396361451938818</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.962386092623451</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.125686414044193</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3617663782069798</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63.329587525252656</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40.038502779659254</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.682337090316796</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.284293187480866</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29.410363860495508</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.389157629796639</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.054619793893853</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.597820239576677</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.421703463954694</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.242513198413501</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.5781221116206172</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.5090025182639</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.8099180636590688</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.8231667519762098</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5955399845895242</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.003139932803261</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.182694343002662</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.96423150391799</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.451456864413833</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14.063606616148654</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.7081521419858432</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3243044721033659</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.0311512930665829</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.5549710461805226</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>31.330921747894447</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15.257311765293824</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>34.327999332157709</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11.425073267183166</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>27.207324666200023</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.897326540742567</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.0147183385925591</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.3347181725519324</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15.420783225585426</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>34.617259336484402</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.109497392405817</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.826931718179642</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.0277649070598809</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.6827590458190413</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.3925255542716855</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19.141665300287258</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>28.311703705056004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>29.218083237074872</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>19.006907450318586</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>34.95042472602978</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.2026867984156544</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.6006210749711247</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.5020262055882174</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B44-B941-8203-3E39B14B3DD7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1508625231"/>
-        <c:axId val="1508627503"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1508625231"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1508627503"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1508627503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1508625231"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2752,46 +2042,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3296,7 +2546,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3500,23 +2750,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3621,8 +2870,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3754,525 +3003,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4309,16 +3052,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228587</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>361244</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>39158</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>201082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4347,15 +3090,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>88901</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>149572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>134620</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4417,66 +3160,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21168</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC3659C-3828-4D5E-9A52-2E2DC6D2C3F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1214329D-C91F-9343-8891-7E13FF2EB17E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90155C4C-92CF-452A-A190-84174749AA2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4490,7 +3192,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4500,27 +3202,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FD5192E-B4A3-DE42-A7C7-FB382F473F10}" name="Table23" displayName="Table23" ref="B3:C55" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FD5192E-B4A3-DE42-A7C7-FB382F473F10}" name="Table23" displayName="Table23" ref="A1:B53" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{E372532D-07D0-D343-9505-E0B83346A8CC}" name="State" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{1DA5ED27-5F98-7F4E-951C-E6D01E88025E}" name="Registration Count" dataDxfId="14" dataCellStyle="Comma"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{757A1EF0-090A-E340-B6EE-11803E605BB4}" name="Table232" displayName="Table232" ref="A2:E54" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{49885A0E-A6CB-B449-879B-282E6FEF803D}" name="State" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B55EE516-13C6-9544-873C-342C0FAFFDFC}" name="Registration Count" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{BF5B8A3E-0648-F746-9C0C-E14FB244DD71}" name="state registration" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{3C47E616-0A43-F449-8BB7-37442359E695}" name="# EV / Pop" dataDxfId="5">
-      <calculatedColumnFormula xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{1870A35A-F37C-4F49-A4BC-5016557B7321}" name="per 1000" dataDxfId="4">
-      <calculatedColumnFormula>Table232[[#This Row],[state registration]]/1000</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E372532D-07D0-D343-9505-E0B83346A8CC}" name="State" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1DA5ED27-5F98-7F4E-951C-E6D01E88025E}" name="EV Registration Count" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4823,611 +3508,1569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEAD6DA-77B8-B749-BB62-A3A394A9DB55}">
-  <dimension ref="B2:AM55"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
-    <col min="25" max="25" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:39" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:41" ht="30">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="15.75">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="B2" s="13">
         <v>8730</v>
       </c>
-    </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="C2" s="21">
+        <v>2059138.9687760035</v>
+      </c>
+      <c r="D2" s="30">
+        <v>4817678</v>
+      </c>
+      <c r="E2" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D2*1000</f>
+        <v>1.8120762740888867</v>
+      </c>
+      <c r="F2" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C2</f>
+        <v>4.2396361451938818E-3</v>
+      </c>
+      <c r="G2" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C2*1000</f>
+        <v>4.2396361451938818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="B3" s="13">
         <v>1970</v>
       </c>
-    </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="C3" s="22">
+        <v>141093.36233301714</v>
+      </c>
+      <c r="D3" s="30">
+        <v>728300</v>
+      </c>
+      <c r="E3" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D3*1000</f>
+        <v>2.7049292873815736</v>
+      </c>
+      <c r="F3" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C3</f>
+        <v>1.3962386092623451E-2</v>
+      </c>
+      <c r="G3" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C3*1000</f>
+        <v>13.962386092623451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="15.75">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
+      <c r="B4" s="13">
         <v>65780</v>
       </c>
-    </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="C4" s="22">
+        <v>2258487.5448044846</v>
+      </c>
+      <c r="D4" s="30">
+        <v>6561516</v>
+      </c>
+      <c r="E4" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D4*1000</f>
+        <v>10.025122243091383</v>
+      </c>
+      <c r="F4" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C4</f>
+        <v>2.9125686414044193E-2</v>
+      </c>
+      <c r="G4" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C4*1000</f>
+        <v>29.125686414044193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15.75">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15">
+      <c r="B5" s="13">
         <v>5140</v>
       </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-    </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="C5" s="21">
+        <v>958639.30604877626</v>
+      </c>
+      <c r="D5" s="30">
+        <v>2947036</v>
+      </c>
+      <c r="E5" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D5*1000</f>
+        <v>1.7441252838445136</v>
+      </c>
+      <c r="F5" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C5</f>
+        <v>5.3617663782069801E-3</v>
+      </c>
+      <c r="G5" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C5*1000</f>
+        <v>5.3617663782069798</v>
+      </c>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+    </row>
+    <row r="6" spans="1:41" ht="15.75">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15">
+      <c r="B6" s="13">
         <v>903620</v>
       </c>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-    </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="C6" s="22">
+        <v>14268528.113177458</v>
+      </c>
+      <c r="D6" s="30">
+        <v>38066920</v>
+      </c>
+      <c r="E6" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D6*1000</f>
+        <v>23.737670397289826</v>
+      </c>
+      <c r="F6" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C6</f>
+        <v>6.3329587525252654E-2</v>
+      </c>
+      <c r="G6" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C6*1000</f>
+        <v>63.329587525252656</v>
+      </c>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+    </row>
+    <row r="7" spans="1:41" ht="15.75">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15">
+      <c r="B7" s="13">
         <v>59910</v>
       </c>
-    </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="C7" s="22">
+        <v>1496309.6979349602</v>
+      </c>
+      <c r="D7" s="30">
+        <v>5197580</v>
+      </c>
+      <c r="E7" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D7*1000</f>
+        <v>11.526518110351356</v>
+      </c>
+      <c r="F7" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C7</f>
+        <v>4.003850277965925E-2</v>
+      </c>
+      <c r="G7" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C7*1000</f>
+        <v>40.038502779659254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15.75">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="B8" s="13">
         <v>22030</v>
       </c>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-    </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="C8" s="22">
+        <v>1119277.6497481181</v>
+      </c>
+      <c r="D8" s="30">
+        <v>3592053</v>
+      </c>
+      <c r="E8" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D8*1000</f>
+        <v>6.1329830044267171</v>
+      </c>
+      <c r="F8" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C8</f>
+        <v>1.9682337090316797E-2</v>
+      </c>
+      <c r="G8" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C8*1000</f>
+        <v>19.682337090316796</v>
+      </c>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" spans="1:41" ht="15.75">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15">
+      <c r="B9" s="13">
         <v>5390</v>
       </c>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-    </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="C9" s="21">
+        <v>177980.04948083634</v>
+      </c>
+      <c r="D9" s="30">
+        <v>917060</v>
+      </c>
+      <c r="E9" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D9*1000</f>
+        <v>5.8774780276099712</v>
+      </c>
+      <c r="F9" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C9</f>
+        <v>3.0284293187480868E-2</v>
+      </c>
+      <c r="G9" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C9*1000</f>
+        <v>30.284293187480866</v>
+      </c>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+    </row>
+    <row r="10" spans="1:41" ht="15.75">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="B10" s="13">
         <v>5860</v>
       </c>
-    </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="C10" s="21">
+        <v>199249.49000278267</v>
+      </c>
+      <c r="D10" s="30">
+        <v>633736</v>
+      </c>
+      <c r="E10" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D10*1000</f>
+        <v>9.2467525909842578</v>
+      </c>
+      <c r="F10" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C10</f>
+        <v>2.9410363860495507E-2</v>
+      </c>
+      <c r="G10" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C10*1000</f>
+        <v>29.410363860495508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15.75">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15">
+      <c r="B11" s="13">
         <v>167990</v>
       </c>
-    </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="C11" s="22">
+        <v>7853979.2406774275</v>
+      </c>
+      <c r="D11" s="30">
+        <v>19361792</v>
+      </c>
+      <c r="E11" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D11*1000</f>
+        <v>8.67636631981172</v>
+      </c>
+      <c r="F11" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C11</f>
+        <v>2.1389157629796637E-2</v>
+      </c>
+      <c r="G11" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C11*1000</f>
+        <v>21.389157629796639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="15.75">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15">
+      <c r="B12" s="13">
         <v>60120</v>
       </c>
-    </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="C12" s="22">
+        <v>3525144.5488995919</v>
+      </c>
+      <c r="D12" s="30">
+        <v>9907756</v>
+      </c>
+      <c r="E12" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D12*1000</f>
+        <v>6.0679734139597299</v>
+      </c>
+      <c r="F12" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C12</f>
+        <v>1.7054619793893853E-2</v>
+      </c>
+      <c r="G12" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C12*1000</f>
+        <v>17.054619793893853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15.75">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="15">
+      <c r="B13" s="13">
         <v>19760</v>
       </c>
-    </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C13" s="22">
+        <v>463873.50077695824</v>
+      </c>
+      <c r="D13" s="30">
+        <v>1392704</v>
+      </c>
+      <c r="E13" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D13*1000</f>
+        <v>14.18822664399614</v>
+      </c>
+      <c r="F13" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C13</f>
+        <v>4.2597820239576679E-2</v>
+      </c>
+      <c r="G13" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C13*1000</f>
+        <v>42.597820239576677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="15.75">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="15">
+      <c r="B14" s="13">
         <v>5940</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="C14" s="22">
+        <v>569964.40366438578</v>
+      </c>
+      <c r="D14" s="30">
+        <v>1599464</v>
+      </c>
+      <c r="E14" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D14*1000</f>
+        <v>3.713744104274932</v>
+      </c>
+      <c r="F14" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C14</f>
+        <v>1.0421703463954693E-2</v>
+      </c>
+      <c r="G14" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C14*1000</f>
+        <v>10.421703463954694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="15.75">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="15">
+      <c r="B15" s="13">
         <v>66880</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="C15" s="22">
+        <v>4117589.389216722</v>
+      </c>
+      <c r="D15" s="30">
+        <v>12868747</v>
+      </c>
+      <c r="E15" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D15*1000</f>
+        <v>5.197087175620128</v>
+      </c>
+      <c r="F15" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C15</f>
+        <v>1.6242513198413501E-2</v>
+      </c>
+      <c r="G15" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C15*1000</f>
+        <v>16.242513198413501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="15.75">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="15">
+      <c r="B16" s="13">
         <v>17710</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="C16" s="22">
+        <v>2064554.4292274183</v>
+      </c>
+      <c r="D16" s="30">
+        <v>6542411</v>
+      </c>
+      <c r="E16" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D16*1000</f>
+        <v>2.7069531400580003</v>
+      </c>
+      <c r="F16" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C16</f>
+        <v>8.5781221116206178E-3</v>
+      </c>
+      <c r="G16" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C16*1000</f>
+        <v>8.5781221116206172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="15">
+      <c r="B17" s="13">
         <v>6220</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+      <c r="C17" s="22">
+        <v>1129061.0195546185</v>
+      </c>
+      <c r="D17" s="30">
+        <v>3078116</v>
+      </c>
+      <c r="E17" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D17*1000</f>
+        <v>2.020716568186514</v>
+      </c>
+      <c r="F17" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C17</f>
+        <v>5.5090025182639004E-3</v>
+      </c>
+      <c r="G17" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C17*1000</f>
+        <v>5.5090025182639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15">
+      <c r="B18" s="13">
         <v>7550</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+      <c r="C18" s="21">
+        <v>856988.6740653998</v>
+      </c>
+      <c r="D18" s="30">
+        <v>2882946</v>
+      </c>
+      <c r="E18" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D18*1000</f>
+        <v>2.6188489135765987</v>
+      </c>
+      <c r="F18" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C18</f>
+        <v>8.8099180636590693E-3</v>
+      </c>
+      <c r="G18" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C18*1000</f>
+        <v>8.8099180636590688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="15">
+      <c r="B19" s="13">
         <v>7560</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="C19" s="22">
+        <v>1567434.9216523396</v>
+      </c>
+      <c r="D19" s="30">
+        <v>4383272</v>
+      </c>
+      <c r="E19" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D19*1000</f>
+        <v>1.7247389621269227</v>
+      </c>
+      <c r="F19" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C19</f>
+        <v>4.8231667519762099E-3</v>
+      </c>
+      <c r="G19" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C19*1000</f>
+        <v>4.8231667519762098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="15">
+      <c r="B20" s="13">
         <v>5880</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
+      <c r="C20" s="21">
+        <v>1279501.4339376276</v>
+      </c>
+      <c r="D20" s="30">
+        <v>4601049</v>
+      </c>
+      <c r="E20" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D20*1000</f>
+        <v>1.2779694369696997</v>
+      </c>
+      <c r="F20" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C20</f>
+        <v>4.5955399845895245E-3</v>
+      </c>
+      <c r="G20" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C20*1000</f>
+        <v>4.5955399845895242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="15">
+      <c r="B21" s="13">
         <v>4990</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
+      <c r="C21" s="21">
+        <v>415724.55440287577</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1328535</v>
+      </c>
+      <c r="E21" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D21*1000</f>
+        <v>3.7560169660565963</v>
+      </c>
+      <c r="F21" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C21</f>
+        <v>1.2003139932803261E-2</v>
+      </c>
+      <c r="G21" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C21*1000</f>
+        <v>12.003139932803261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="15">
+      <c r="B22" s="13">
         <v>46060</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+      <c r="C22" s="22">
+        <v>2076393.394228471</v>
+      </c>
+      <c r="D22" s="30">
+        <v>5887776</v>
+      </c>
+      <c r="E22" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D22*1000</f>
+        <v>7.8229878310587893</v>
+      </c>
+      <c r="F22" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C22</f>
+        <v>2.2182694343002664E-2</v>
+      </c>
+      <c r="G22" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C22*1000</f>
+        <v>22.182694343002662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75">
+      <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="15">
+      <c r="B23" s="13">
         <v>49440</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
+      <c r="C23" s="23">
+        <v>1980433.4850940907</v>
+      </c>
+      <c r="D23" s="30">
+        <v>6657291</v>
+      </c>
+      <c r="E23" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D23*1000</f>
+        <v>7.4264441797722229</v>
+      </c>
+      <c r="F23" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C23</f>
+        <v>2.4964231503917991E-2</v>
+      </c>
+      <c r="G23" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C23*1000</f>
+        <v>24.96423150391799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="15">
+      <c r="B24" s="13">
         <v>33150</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
+      <c r="C24" s="21">
+        <v>2894828.1771043334</v>
+      </c>
+      <c r="D24" s="30">
+        <v>9889024</v>
+      </c>
+      <c r="E24" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D24*1000</f>
+        <v>3.3522013901472985</v>
+      </c>
+      <c r="F24" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C24</f>
+        <v>1.1451456864413833E-2</v>
+      </c>
+      <c r="G24" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C24*1000</f>
+        <v>11.451456864413833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75">
+      <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="15">
+      <c r="B25" s="13">
         <v>24330</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
+      <c r="C25" s="21">
+        <v>1729997.195176298</v>
+      </c>
+      <c r="D25" s="30">
+        <v>5383661</v>
+      </c>
+      <c r="E25" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D25*1000</f>
+        <v>4.5192295725901017</v>
+      </c>
+      <c r="F25" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C25</f>
+        <v>1.4063606616148654E-2</v>
+      </c>
+      <c r="G25" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C25*1000</f>
+        <v>14.063606616148654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75">
+      <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="15">
+      <c r="B26" s="13">
         <v>2420</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
+      <c r="C26" s="22">
+        <v>893598.24453047675</v>
+      </c>
+      <c r="D26" s="30">
+        <v>2984345</v>
+      </c>
+      <c r="E26" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D26*1000</f>
+        <v>0.81089820379346222</v>
+      </c>
+      <c r="F26" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C26</f>
+        <v>2.7081521419858434E-3</v>
+      </c>
+      <c r="G26" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C26*1000</f>
+        <v>2.7081521419858432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
+      <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="15">
+      <c r="B27" s="13">
         <v>17870</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
+      <c r="C27" s="21">
+        <v>1916496.8339959097</v>
+      </c>
+      <c r="D27" s="30">
+        <v>6028076</v>
+      </c>
+      <c r="E27" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D27*1000</f>
+        <v>2.9644616292163537</v>
+      </c>
+      <c r="F27" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C27</f>
+        <v>9.3243044721033654E-3</v>
+      </c>
+      <c r="G27" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C27*1000</f>
+        <v>9.3243044721033659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="15">
+      <c r="B28" s="13">
         <v>3260</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
+      <c r="C28" s="22">
+        <v>463650.95332462632</v>
+      </c>
+      <c r="D28" s="30">
+        <v>1006370</v>
+      </c>
+      <c r="E28" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D28*1000</f>
+        <v>3.2393652433995448</v>
+      </c>
+      <c r="F28" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C28</f>
+        <v>7.0311512930665825E-3</v>
+      </c>
+      <c r="G28" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C28*1000</f>
+        <v>7.0311512930665829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
+      <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="15">
+      <c r="B29" s="13">
         <v>4570</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
+      <c r="C29" s="22">
+        <v>604899.73714861565</v>
+      </c>
+      <c r="D29" s="30">
+        <v>1855617</v>
+      </c>
+      <c r="E29" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D29*1000</f>
+        <v>2.4627926991399627</v>
+      </c>
+      <c r="F29" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C29</f>
+        <v>7.5549710461805227E-3</v>
+      </c>
+      <c r="G29" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C29*1000</f>
+        <v>7.5549710461805226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="15">
+      <c r="B30" s="13">
         <v>32950</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
+      <c r="C30" s="21">
+        <v>1051676.6874952973</v>
+      </c>
+      <c r="D30" s="30">
+        <v>2761584</v>
+      </c>
+      <c r="E30" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D30*1000</f>
+        <v>11.93155812026721</v>
+      </c>
+      <c r="F30" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C30</f>
+        <v>3.1330921747894445E-2</v>
+      </c>
+      <c r="G30" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C30*1000</f>
+        <v>31.330921747894447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="15">
+      <c r="B31" s="13">
         <v>6990</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
+      <c r="C31" s="21">
+        <v>458140.99544720072</v>
+      </c>
+      <c r="D31" s="30">
+        <v>1321069</v>
+      </c>
+      <c r="E31" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D31*1000</f>
+        <v>5.291169499852014</v>
+      </c>
+      <c r="F31" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C31</f>
+        <v>1.5257311765293824E-2</v>
+      </c>
+      <c r="G31" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C31*1000</f>
+        <v>15.257311765293824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="15">
+      <c r="B32" s="13">
         <v>87030</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="s">
+      <c r="C32" s="22">
+        <v>2535248.2432167907</v>
+      </c>
+      <c r="D32" s="30">
+        <v>8874374</v>
+      </c>
+      <c r="E32" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D32*1000</f>
+        <v>9.8068889140800248</v>
+      </c>
+      <c r="F32" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C32</f>
+        <v>3.4327999332157709E-2</v>
+      </c>
+      <c r="G32" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C32*1000</f>
+        <v>34.327999332157709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15.75">
+      <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="15">
+      <c r="B33" s="13">
         <v>7080</v>
       </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="s">
+      <c r="C33" s="22">
+        <v>619689.68026981968</v>
+      </c>
+      <c r="D33" s="30">
+        <v>2080085</v>
+      </c>
+      <c r="E33" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D33*1000</f>
+        <v>3.4037070600480273</v>
+      </c>
+      <c r="F33" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C33</f>
+        <v>1.1425073267183165E-2</v>
+      </c>
+      <c r="G33" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C33*1000</f>
+        <v>11.425073267183166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.75">
+      <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="15">
+      <c r="B34" s="13">
         <v>84670</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
+      <c r="C34" s="22">
+        <v>3112029.6110990481</v>
+      </c>
+      <c r="D34" s="30">
+        <v>19594330</v>
+      </c>
+      <c r="E34" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D34*1000</f>
+        <v>4.3211480055709997</v>
+      </c>
+      <c r="F34" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C34</f>
+        <v>2.7207324666200024E-2</v>
+      </c>
+      <c r="G34" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C34*1000</f>
+        <v>27.207324666200023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="15.75">
+      <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="15">
+      <c r="B35" s="13">
         <v>45590</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="C35" s="22">
+        <v>3280487.068238955</v>
+      </c>
+      <c r="D35" s="30">
+        <v>9750405</v>
+      </c>
+      <c r="E35" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D35*1000</f>
+        <v>4.6757032143793005</v>
+      </c>
+      <c r="F35" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C35</f>
+        <v>1.3897326540742567E-2</v>
+      </c>
+      <c r="G35" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C35*1000</f>
+        <v>13.897326540742567</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="13">
+        <v>640</v>
+      </c>
+      <c r="C36" s="22">
+        <v>212291.80577406386</v>
+      </c>
+      <c r="D36" s="30">
+        <v>704925</v>
+      </c>
+      <c r="E36" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D36*1000</f>
+        <v>0.90789800333368798</v>
+      </c>
+      <c r="F36" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C36</f>
+        <v>3.0147183385925589E-3</v>
+      </c>
+      <c r="G36" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C36*1000</f>
+        <v>3.0147183385925591</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75">
+      <c r="A37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="13">
+        <v>34060</v>
+      </c>
+      <c r="C37" s="22">
+        <v>4086520.8990709609</v>
+      </c>
+      <c r="D37" s="30">
+        <v>11560380</v>
+      </c>
+      <c r="E37" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D37*1000</f>
+        <v>2.9462699323032635</v>
+      </c>
+      <c r="F37" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C37</f>
+        <v>8.3347181725519325E-3</v>
+      </c>
+      <c r="G37" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C37*1000</f>
+        <v>8.3347181725519324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.75">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="13">
+        <v>16290</v>
+      </c>
+      <c r="C38" s="22">
+        <v>1056366.5776049825</v>
+      </c>
+      <c r="D38" s="30">
+        <v>3818851</v>
+      </c>
+      <c r="E38" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D38*1000</f>
+        <v>4.2656809600584049</v>
+      </c>
+      <c r="F38" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C38</f>
+        <v>1.5420783225585426E-2</v>
+      </c>
+      <c r="G38" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C38*1000</f>
+        <v>15.420783225585426</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75">
+      <c r="A39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="13">
+        <v>46980</v>
+      </c>
+      <c r="C39" s="22">
+        <v>1357126.4999157819</v>
+      </c>
+      <c r="D39" s="30">
+        <v>3900343</v>
+      </c>
+      <c r="E39" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D39*1000</f>
+        <v>12.045094495535393</v>
+      </c>
+      <c r="F39" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C39</f>
+        <v>3.46172593364844E-2</v>
+      </c>
+      <c r="G39" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C39*1000</f>
+        <v>34.617259336484402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15.75">
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="13">
+        <v>47440</v>
+      </c>
+      <c r="C40" s="22">
+        <v>3917586.210452538</v>
+      </c>
+      <c r="D40" s="30">
+        <v>12758729</v>
+      </c>
+      <c r="E40" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D40*1000</f>
+        <v>3.7182387054384494</v>
+      </c>
+      <c r="F40" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C40</f>
+        <v>1.2109497392405818E-2</v>
+      </c>
+      <c r="G40" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C40*1000</f>
+        <v>12.109497392405817</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75">
+      <c r="A41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="13">
+        <v>4340</v>
+      </c>
+      <c r="C41" s="22">
+        <v>338350.5966472798</v>
+      </c>
+      <c r="D41" s="30">
+        <v>1053252</v>
+      </c>
+      <c r="E41" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D41*1000</f>
+        <v>4.1205713352550006</v>
+      </c>
+      <c r="F41" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C41</f>
+        <v>1.2826931718179642E-2</v>
+      </c>
+      <c r="G41" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C41*1000</f>
+        <v>12.826931718179642</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+    </row>
+    <row r="42" spans="1:27" ht="15.75">
+      <c r="A42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="13">
+        <v>13490</v>
+      </c>
+      <c r="C42" s="22">
+        <v>1919529.2071378701</v>
+      </c>
+      <c r="D42" s="30">
+        <v>4727273</v>
+      </c>
+      <c r="E42" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D42*1000</f>
+        <v>2.85365368151998</v>
+      </c>
+      <c r="F42" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C42</f>
+        <v>7.0277649070598809E-3</v>
+      </c>
+      <c r="G42" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C42*1000</f>
+        <v>7.0277649070598809</v>
+      </c>
+      <c r="L42" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="15">
-        <v>640</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="1:27" ht="15.75">
+      <c r="A43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1170</v>
+      </c>
+      <c r="C43" s="21">
+        <v>317696.59253930184</v>
+      </c>
+      <c r="D43" s="30">
+        <v>834708</v>
+      </c>
+      <c r="E43" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D43*1000</f>
+        <v>1.4016877758449662</v>
+      </c>
+      <c r="F43" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C43</f>
+        <v>3.6827590458190411E-3</v>
+      </c>
+      <c r="G43" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C43*1000</f>
+        <v>3.6827590458190413</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="15">
-        <v>34060</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="15">
-        <v>16290</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+    </row>
+    <row r="44" spans="1:27" ht="15.75">
+      <c r="A44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="13">
+        <v>22040</v>
+      </c>
+      <c r="C44" s="22">
+        <v>2346546.7166044912</v>
+      </c>
+      <c r="D44" s="30">
+        <v>6451365</v>
+      </c>
+      <c r="E44" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D44*1000</f>
+        <v>3.4163312725291473</v>
+      </c>
+      <c r="F44" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C44</f>
+        <v>9.3925255542716846E-3</v>
+      </c>
+      <c r="G44" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C44*1000</f>
+        <v>9.3925255542716855</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" spans="1:27" ht="15.75">
+      <c r="A45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="13">
+        <v>149000</v>
+      </c>
+      <c r="C45" s="22">
+        <v>7784066.7289153757</v>
+      </c>
+      <c r="D45" s="30">
+        <v>26092033</v>
+      </c>
+      <c r="E45" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D45*1000</f>
+        <v>5.7105554021030098</v>
+      </c>
+      <c r="F45" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C45</f>
+        <v>1.9141665300287259E-2</v>
+      </c>
+      <c r="G45" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C45*1000</f>
+        <v>19.141665300287258</v>
+      </c>
+      <c r="L45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="15">
-        <v>46980</v>
-      </c>
-      <c r="E41" s="23" t="s">
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75">
+      <c r="A46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="13">
+        <v>28050</v>
+      </c>
+      <c r="C46" s="22">
+        <v>990756.34204912698</v>
+      </c>
+      <c r="D46" s="30">
+        <v>2858111</v>
+      </c>
+      <c r="E46" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D46*1000</f>
+        <v>9.8141744669818625</v>
+      </c>
+      <c r="F46" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C46</f>
+        <v>2.8311703705056004E-2</v>
+      </c>
+      <c r="G46" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C46*1000</f>
+        <v>28.311703705056004</v>
+      </c>
+      <c r="L46" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="15">
-        <v>47440</v>
-      </c>
-      <c r="E42" s="23" t="s">
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+    </row>
+    <row r="47" spans="1:27" ht="15.75">
+      <c r="A47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="13">
+        <v>5260</v>
+      </c>
+      <c r="C47" s="22">
+        <v>180025.49850106449</v>
+      </c>
+      <c r="D47" s="30">
+        <v>626358</v>
+      </c>
+      <c r="E47" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D47*1000</f>
+        <v>8.3977533614961413</v>
+      </c>
+      <c r="F47" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C47</f>
+        <v>2.9218083237074872E-2</v>
+      </c>
+      <c r="G47" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C47*1000</f>
+        <v>29.218083237074872</v>
+      </c>
+      <c r="L47" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="15">
-        <v>4340</v>
-      </c>
-      <c r="E43" s="25" t="s">
+    </row>
+    <row r="48" spans="1:27" ht="15.75">
+      <c r="A48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="13">
+        <v>56610</v>
+      </c>
+      <c r="C48" s="22">
+        <v>2978390.8901524711</v>
+      </c>
+      <c r="D48" s="30">
+        <v>8185131</v>
+      </c>
+      <c r="E48" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D48*1000</f>
+        <v>6.9161996307695013</v>
+      </c>
+      <c r="F48" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C48</f>
+        <v>1.9006907450318584E-2</v>
+      </c>
+      <c r="G48" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C48*1000</f>
+        <v>19.006907450318586</v>
+      </c>
+      <c r="L48" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="15">
-        <v>13490</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="15">
-        <v>1170</v>
-      </c>
-      <c r="E45" s="21" t="s">
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+    </row>
+    <row r="49" spans="1:28" ht="15.75">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="13">
+        <v>104050</v>
+      </c>
+      <c r="C49" s="22">
+        <v>2977073.9788036803</v>
+      </c>
+      <c r="D49" s="30">
+        <v>6899123</v>
+      </c>
+      <c r="E49" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D49*1000</f>
+        <v>15.081627041581951</v>
+      </c>
+      <c r="F49" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C49</f>
+        <v>3.4950424726029779E-2</v>
+      </c>
+      <c r="G49" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C49*1000</f>
+        <v>34.95042472602978</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="15.75">
+      <c r="A50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1870</v>
+      </c>
+      <c r="C50" s="21">
+        <v>359429.67017915833</v>
+      </c>
+      <c r="D50" s="30">
+        <v>1853881</v>
+      </c>
+      <c r="E50" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D50*1000</f>
+        <v>1.008694732833445</v>
+      </c>
+      <c r="F50" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C50</f>
+        <v>5.2026867984156545E-3</v>
+      </c>
+      <c r="G50" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C50*1000</f>
+        <v>5.2026867984156544</v>
+      </c>
+      <c r="L50" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="15">
-        <v>22040</v>
-      </c>
-      <c r="E46" s="22" t="s">
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+    </row>
+    <row r="51" spans="1:28" ht="15.75">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="13">
+        <v>15700</v>
+      </c>
+      <c r="C51" s="22">
+        <v>1825449.5649958292</v>
+      </c>
+      <c r="D51" s="30">
+        <v>5724692</v>
+      </c>
+      <c r="E51" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D51*1000</f>
+        <v>2.7425056230099369</v>
+      </c>
+      <c r="F51" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C51</f>
+        <v>8.6006210749711241E-3</v>
+      </c>
+      <c r="G51" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C51*1000</f>
+        <v>8.6006210749711247</v>
+      </c>
+      <c r="L51" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="15">
-        <v>149000</v>
-      </c>
-      <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="15">
-        <v>28050</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="15">
-        <v>5260</v>
-      </c>
-      <c r="W49" s="12"/>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="15">
-        <v>56610</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="15">
-        <v>104050</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="15">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="15">
-        <v>15700</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+    </row>
+    <row r="52" spans="1:28" ht="14.65" customHeight="1">
+      <c r="A52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="15">
+      <c r="B52" s="13">
         <v>840</v>
       </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
+      <c r="C52" s="21">
+        <v>186582.65448507064</v>
+      </c>
+      <c r="D52" s="30">
+        <v>575251</v>
+      </c>
+      <c r="E52" s="31">
+        <f>Table23[[#This Row],[EV Registration Count]]/D52*1000</f>
+        <v>1.4602321421431688</v>
+      </c>
+      <c r="F52" s="24">
+        <f>Table23[[#This Row],[EV Registration Count]]/C52</f>
+        <v>4.5020262055882176E-3</v>
+      </c>
+      <c r="G52" s="26">
+        <f>Table23[[#This Row],[EV Registration Count]]/C52*1000</f>
+        <v>4.5020262055882174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="15.75">
+      <c r="A53" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="16">
-        <f>SUM(C4:C54)</f>
+      <c r="B53" s="14">
+        <f>SUM(B2:B52)</f>
         <v>2442270</v>
       </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
+      <c r="C53" s="29">
+        <f>SUM(C2:C52)</f>
+        <v>102973881.03858075</v>
+      </c>
+      <c r="D53" s="32">
+        <f>SUM(D2:D52)</f>
+        <v>314107084</v>
+      </c>
+      <c r="E53" s="33">
+        <f>Table23[[#This Row],[EV Registration Count]]/D53*1000</f>
+        <v>7.7752783187787005</v>
+      </c>
+      <c r="F53" s="25">
+        <f>Table23[[#This Row],[EV Registration Count]]/C53</f>
+        <v>2.3717373525864935E-2</v>
+      </c>
+      <c r="G53" s="27">
+        <f>Table23[[#This Row],[EV Registration Count]]/C53*1000</f>
+        <v>23.717373525864936</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E45:K45"/>
-    <mergeCell ref="E46:K46"/>
-    <mergeCell ref="E41:Q41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E38:S38"/>
-    <mergeCell ref="E43:U43"/>
-    <mergeCell ref="E37:F37"/>
+  <mergeCells count="1">
+    <mergeCell ref="L51:R51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5439,1109 +5082,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C01EF95-8C29-5540-91D1-2FB9F8A14090}">
-  <dimension ref="A1:J54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15">
-        <v>8730</v>
-      </c>
-      <c r="C3" s="27">
-        <v>2059138.9687760035</v>
-      </c>
-      <c r="D3" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>4.2396361451938818E-3</v>
-      </c>
-      <c r="E3" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>4.2396361451938818</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="17">
-        <f>MAX(B3:B53)</f>
-        <v>903620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1970</v>
-      </c>
-      <c r="C4" s="28">
-        <v>141093.36233301714</v>
-      </c>
-      <c r="D4" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.3962386092623451E-2</v>
-      </c>
-      <c r="E4" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>13.962386092623451</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="17">
-        <f>MIN(B3:B53)</f>
-        <v>640</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="15">
-        <v>65780</v>
-      </c>
-      <c r="C5" s="28">
-        <v>2258487.5448044846</v>
-      </c>
-      <c r="D5" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>2.9125686414044193E-2</v>
-      </c>
-      <c r="E5" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>29.125686414044193</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="17">
-        <f>AVERAGE(B3:B53)</f>
-        <v>47887.647058823532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5140</v>
-      </c>
-      <c r="C6" s="29">
-        <v>958639.30604877626</v>
-      </c>
-      <c r="D6" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>5.3617663782069801E-3</v>
-      </c>
-      <c r="E6" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>5.3617663782069798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="15">
-        <v>903620</v>
-      </c>
-      <c r="C7" s="28">
-        <v>14268528.113177458</v>
-      </c>
-      <c r="D7" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>6.3329587525252654E-2</v>
-      </c>
-      <c r="E7" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>63.329587525252656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="15">
-        <v>59910</v>
-      </c>
-      <c r="C8" s="28">
-        <v>1496309.6979349602</v>
-      </c>
-      <c r="D8" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>4.003850277965925E-2</v>
-      </c>
-      <c r="E8" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>40.038502779659254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="15">
-        <v>22030</v>
-      </c>
-      <c r="C9" s="28">
-        <v>1119277.6497481181</v>
-      </c>
-      <c r="D9" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.9682337090316797E-2</v>
-      </c>
-      <c r="E9" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>19.682337090316796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="15">
-        <v>5390</v>
-      </c>
-      <c r="C10" s="30">
-        <v>177980.04948083634</v>
-      </c>
-      <c r="D10" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>3.0284293187480868E-2</v>
-      </c>
-      <c r="E10" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>30.284293187480866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="15">
-        <v>5860</v>
-      </c>
-      <c r="C11" s="27">
-        <v>199249.49000278267</v>
-      </c>
-      <c r="D11" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>2.9410363860495507E-2</v>
-      </c>
-      <c r="E11" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>29.410363860495508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="15">
-        <v>167990</v>
-      </c>
-      <c r="C12" s="28">
-        <v>7853979.2406774275</v>
-      </c>
-      <c r="D12" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>2.1389157629796637E-2</v>
-      </c>
-      <c r="E12" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>21.389157629796639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="15">
-        <v>60120</v>
-      </c>
-      <c r="C13" s="28">
-        <v>3525144.5488995919</v>
-      </c>
-      <c r="D13" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.7054619793893853E-2</v>
-      </c>
-      <c r="E13" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>17.054619793893853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="15">
-        <v>19760</v>
-      </c>
-      <c r="C14" s="31">
-        <v>463873.50077695824</v>
-      </c>
-      <c r="D14" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>4.2597820239576679E-2</v>
-      </c>
-      <c r="E14" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>42.597820239576677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15">
-        <v>5940</v>
-      </c>
-      <c r="C15" s="28">
-        <v>569964.40366438578</v>
-      </c>
-      <c r="D15" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.0421703463954693E-2</v>
-      </c>
-      <c r="E15" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>10.421703463954694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="15">
-        <v>66880</v>
-      </c>
-      <c r="C16" s="28">
-        <v>4117589.389216722</v>
-      </c>
-      <c r="D16" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.6242513198413501E-2</v>
-      </c>
-      <c r="E16" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>16.242513198413501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="15">
-        <v>17710</v>
-      </c>
-      <c r="C17" s="28">
-        <v>2064554.4292274183</v>
-      </c>
-      <c r="D17" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>8.5781221116206178E-3</v>
-      </c>
-      <c r="E17" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>8.5781221116206172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="15">
-        <v>6220</v>
-      </c>
-      <c r="C18" s="31">
-        <v>1129061.0195546185</v>
-      </c>
-      <c r="D18" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>5.5090025182639004E-3</v>
-      </c>
-      <c r="E18" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>5.5090025182639</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="15">
-        <v>7550</v>
-      </c>
-      <c r="C19" s="27">
-        <v>856988.6740653998</v>
-      </c>
-      <c r="D19" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>8.8099180636590693E-3</v>
-      </c>
-      <c r="E19" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>8.8099180636590688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="15">
-        <v>7560</v>
-      </c>
-      <c r="C20" s="28">
-        <v>1567434.9216523396</v>
-      </c>
-      <c r="D20" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>4.8231667519762099E-3</v>
-      </c>
-      <c r="E20" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>4.8231667519762098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="15">
-        <v>5880</v>
-      </c>
-      <c r="C21" s="27">
-        <v>1279501.4339376276</v>
-      </c>
-      <c r="D21" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>4.5955399845895245E-3</v>
-      </c>
-      <c r="E21" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>4.5955399845895242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="15">
-        <v>4990</v>
-      </c>
-      <c r="C22" s="29">
-        <v>415724.55440287577</v>
-      </c>
-      <c r="D22" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.2003139932803261E-2</v>
-      </c>
-      <c r="E22" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>12.003139932803261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="15">
-        <v>46060</v>
-      </c>
-      <c r="C23" s="28">
-        <v>2076393.394228471</v>
-      </c>
-      <c r="D23" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>2.2182694343002664E-2</v>
-      </c>
-      <c r="E23" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>22.182694343002662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="15">
-        <v>49440</v>
-      </c>
-      <c r="C24" s="32">
-        <v>1980433.4850940907</v>
-      </c>
-      <c r="D24" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>2.4964231503917991E-2</v>
-      </c>
-      <c r="E24" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>24.96423150391799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="15">
-        <v>33150</v>
-      </c>
-      <c r="C25" s="27">
-        <v>2894828.1771043334</v>
-      </c>
-      <c r="D25" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.1451456864413833E-2</v>
-      </c>
-      <c r="E25" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>11.451456864413833</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="15">
-        <v>24330</v>
-      </c>
-      <c r="C26" s="30">
-        <v>1729997.195176298</v>
-      </c>
-      <c r="D26" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.4063606616148654E-2</v>
-      </c>
-      <c r="E26" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>14.063606616148654</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="15">
-        <v>2420</v>
-      </c>
-      <c r="C27" s="28">
-        <v>893598.24453047675</v>
-      </c>
-      <c r="D27" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>2.7081521419858434E-3</v>
-      </c>
-      <c r="E27" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>2.7081521419858432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="15">
-        <v>17870</v>
-      </c>
-      <c r="C28" s="27">
-        <v>1916496.8339959097</v>
-      </c>
-      <c r="D28" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>9.3243044721033654E-3</v>
-      </c>
-      <c r="E28" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>9.3243044721033659</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="15">
-        <v>3260</v>
-      </c>
-      <c r="C29" s="28">
-        <v>463650.95332462632</v>
-      </c>
-      <c r="D29" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>7.0311512930665825E-3</v>
-      </c>
-      <c r="E29" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>7.0311512930665829</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="15">
-        <v>4570</v>
-      </c>
-      <c r="C30" s="31">
-        <v>604899.73714861565</v>
-      </c>
-      <c r="D30" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>7.5549710461805227E-3</v>
-      </c>
-      <c r="E30" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>7.5549710461805226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="15">
-        <v>32950</v>
-      </c>
-      <c r="C31" s="33">
-        <v>1051676.6874952973</v>
-      </c>
-      <c r="D31" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>3.1330921747894445E-2</v>
-      </c>
-      <c r="E31" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>31.330921747894447</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="15">
-        <v>6990</v>
-      </c>
-      <c r="C32" s="27">
-        <v>458140.99544720072</v>
-      </c>
-      <c r="D32" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.5257311765293824E-2</v>
-      </c>
-      <c r="E32" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>15.257311765293824</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="15">
-        <v>87030</v>
-      </c>
-      <c r="C33" s="28">
-        <v>2535248.2432167907</v>
-      </c>
-      <c r="D33" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>3.4327999332157709E-2</v>
-      </c>
-      <c r="E33" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>34.327999332157709</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="15">
-        <v>7080</v>
-      </c>
-      <c r="C34" s="31">
-        <v>619689.68026981968</v>
-      </c>
-      <c r="D34" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.1425073267183165E-2</v>
-      </c>
-      <c r="E34" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>11.425073267183166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="15">
-        <v>84670</v>
-      </c>
-      <c r="C35" s="28">
-        <v>3112029.6110990481</v>
-      </c>
-      <c r="D35" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>2.7207324666200024E-2</v>
-      </c>
-      <c r="E35" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>27.207324666200023</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="15">
-        <v>45590</v>
-      </c>
-      <c r="C36" s="28">
-        <v>3280487.068238955</v>
-      </c>
-      <c r="D36" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.3897326540742567E-2</v>
-      </c>
-      <c r="E36" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>13.897326540742567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="15">
-        <v>640</v>
-      </c>
-      <c r="C37" s="28">
-        <v>212291.80577406386</v>
-      </c>
-      <c r="D37" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>3.0147183385925589E-3</v>
-      </c>
-      <c r="E37" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>3.0147183385925591</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="15">
-        <v>34060</v>
-      </c>
-      <c r="C38" s="31">
-        <v>4086520.8990709609</v>
-      </c>
-      <c r="D38" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>8.3347181725519325E-3</v>
-      </c>
-      <c r="E38" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>8.3347181725519324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="15">
-        <v>16290</v>
-      </c>
-      <c r="C39" s="28">
-        <v>1056366.5776049825</v>
-      </c>
-      <c r="D39" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.5420783225585426E-2</v>
-      </c>
-      <c r="E39" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>15.420783225585426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="15">
-        <v>46980</v>
-      </c>
-      <c r="C40" s="28">
-        <v>1357126.4999157819</v>
-      </c>
-      <c r="D40" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>3.46172593364844E-2</v>
-      </c>
-      <c r="E40" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>34.617259336484402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="15">
-        <v>47440</v>
-      </c>
-      <c r="C41" s="28">
-        <v>3917586.210452538</v>
-      </c>
-      <c r="D41" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.2109497392405818E-2</v>
-      </c>
-      <c r="E41" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>12.109497392405817</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="15">
-        <v>4340</v>
-      </c>
-      <c r="C42" s="31">
-        <v>338350.5966472798</v>
-      </c>
-      <c r="D42" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.2826931718179642E-2</v>
-      </c>
-      <c r="E42" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>12.826931718179642</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="15">
-        <v>13490</v>
-      </c>
-      <c r="C43" s="28">
-        <v>1919529.2071378701</v>
-      </c>
-      <c r="D43" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>7.0277649070598809E-3</v>
-      </c>
-      <c r="E43" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>7.0277649070598809</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="15">
-        <v>1170</v>
-      </c>
-      <c r="C44" s="27">
-        <v>317696.59253930184</v>
-      </c>
-      <c r="D44" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>3.6827590458190411E-3</v>
-      </c>
-      <c r="E44" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>3.6827590458190413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="15">
-        <v>22040</v>
-      </c>
-      <c r="C45" s="28">
-        <v>2346546.7166044912</v>
-      </c>
-      <c r="D45" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>9.3925255542716846E-3</v>
-      </c>
-      <c r="E45" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>9.3925255542716855</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="15">
-        <v>149000</v>
-      </c>
-      <c r="C46" s="31">
-        <v>7784066.7289153757</v>
-      </c>
-      <c r="D46" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.9141665300287259E-2</v>
-      </c>
-      <c r="E46" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>19.141665300287258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="15">
-        <v>28050</v>
-      </c>
-      <c r="C47" s="28">
-        <v>990756.34204912698</v>
-      </c>
-      <c r="D47" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>2.8311703705056004E-2</v>
-      </c>
-      <c r="E47" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>28.311703705056004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="15">
-        <v>5260</v>
-      </c>
-      <c r="C48" s="28">
-        <v>180025.49850106449</v>
-      </c>
-      <c r="D48" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>2.9218083237074872E-2</v>
-      </c>
-      <c r="E48" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>29.218083237074872</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="15">
-        <v>56610</v>
-      </c>
-      <c r="C49" s="28">
-        <v>2978390.8901524711</v>
-      </c>
-      <c r="D49" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>1.9006907450318584E-2</v>
-      </c>
-      <c r="E49" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>19.006907450318586</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="15">
-        <v>104050</v>
-      </c>
-      <c r="C50" s="31">
-        <v>2977073.9788036803</v>
-      </c>
-      <c r="D50" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>3.4950424726029779E-2</v>
-      </c>
-      <c r="E50" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>34.95042472602978</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="15">
-        <v>1870</v>
-      </c>
-      <c r="C51" s="27">
-        <v>359429.67017915833</v>
-      </c>
-      <c r="D51" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>5.2026867984156545E-3</v>
-      </c>
-      <c r="E51" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>5.2026867984156544</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="15">
-        <v>15700</v>
-      </c>
-      <c r="C52" s="28">
-        <v>1825449.5649958292</v>
-      </c>
-      <c r="D52" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>8.6006210749711241E-3</v>
-      </c>
-      <c r="E52" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>8.6006210749711247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="15">
-        <v>840</v>
-      </c>
-      <c r="C53" s="27">
-        <v>186582.65448507064</v>
-      </c>
-      <c r="D53" s="20">
-        <f xml:space="preserve"> Table232[[#This Row],[Registration Count]]/Table232[[#This Row],[state registration]]</f>
-        <v>4.5020262055882176E-3</v>
-      </c>
-      <c r="E53" s="18">
-        <f>Table232[[#This Row],['# EV / Pop]]*1000</f>
-        <v>4.5020262055882174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="16">
-        <f>SUM(B3:B53)</f>
-        <v>2442270</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C4:C20">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C53">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A98937-D39C-9A41-8FB7-F3B5F251C2C4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426088F7-AD74-FA46-B5FF-90124E3BA892}">
   <dimension ref="B2:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:3" ht="15.75">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -6549,7 +5108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -6557,7 +5116,7 @@
         <v>8730</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -6565,7 +5124,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
@@ -6573,7 +5132,7 @@
         <v>65780</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -6581,7 +5140,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -6589,7 +5148,7 @@
         <v>903620</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -6597,7 +5156,7 @@
         <v>59910</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -6605,7 +5164,7 @@
         <v>22030</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -6613,7 +5172,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -6621,7 +5180,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
@@ -6629,7 +5188,7 @@
         <v>167990</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -6637,7 +5196,7 @@
         <v>60120</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -6645,7 +5204,7 @@
         <v>19760</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -6653,7 +5212,7 @@
         <v>5940</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
@@ -6661,7 +5220,7 @@
         <v>66880</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -6669,7 +5228,7 @@
         <v>17710</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -6677,7 +5236,7 @@
         <v>6220</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -6685,7 +5244,7 @@
         <v>7550</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3">
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
@@ -6693,7 +5252,7 @@
         <v>7560</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -6701,7 +5260,7 @@
         <v>5880</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
@@ -6709,7 +5268,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
@@ -6717,7 +5276,7 @@
         <v>46060</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
@@ -6725,7 +5284,7 @@
         <v>49440</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
@@ -6733,7 +5292,7 @@
         <v>33150</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3">
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
@@ -6741,7 +5300,7 @@
         <v>24330</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3">
       <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
@@ -6749,7 +5308,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="8" t="s">
         <v>28</v>
       </c>
@@ -6757,7 +5316,7 @@
         <v>17870</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3">
       <c r="B30" s="8" t="s">
         <v>29</v>
       </c>
@@ -6765,7 +5324,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3">
       <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
@@ -6773,7 +5332,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3">
       <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
@@ -6781,7 +5340,7 @@
         <v>32950</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -6789,7 +5348,7 @@
         <v>6990</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3">
       <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
@@ -6797,7 +5356,7 @@
         <v>87030</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -6805,7 +5364,7 @@
         <v>7080</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3">
       <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
@@ -6813,7 +5372,7 @@
         <v>84670</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -6821,7 +5380,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3">
       <c r="B38" s="8" t="s">
         <v>37</v>
       </c>
@@ -6829,7 +5388,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3">
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
@@ -6837,7 +5396,7 @@
         <v>34060</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3">
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
@@ -6845,7 +5404,7 @@
         <v>16290</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3">
       <c r="B41" s="8" t="s">
         <v>42</v>
       </c>
@@ -6853,7 +5412,7 @@
         <v>46980</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3">
       <c r="B42" s="8" t="s">
         <v>43</v>
       </c>
@@ -6861,7 +5420,7 @@
         <v>47440</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3">
       <c r="B43" s="8" t="s">
         <v>45</v>
       </c>
@@ -6869,7 +5428,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3">
       <c r="B44" s="8" t="s">
         <v>46</v>
       </c>
@@ -6877,7 +5436,7 @@
         <v>13490</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3">
       <c r="B45" s="8" t="s">
         <v>47</v>
       </c>
@@ -6885,7 +5444,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3">
       <c r="B46" s="8" t="s">
         <v>49</v>
       </c>
@@ -6893,7 +5452,7 @@
         <v>22040</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3">
       <c r="B47" s="8" t="s">
         <v>50</v>
       </c>
@@ -6901,7 +5460,7 @@
         <v>149000</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3">
       <c r="B48" s="8" t="s">
         <v>51</v>
       </c>
@@ -6909,7 +5468,7 @@
         <v>28050</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3">
       <c r="B49" s="8" t="s">
         <v>52</v>
       </c>
@@ -6917,7 +5476,7 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3">
       <c r="B50" s="8" t="s">
         <v>53</v>
       </c>
@@ -6925,7 +5484,7 @@
         <v>56610</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3">
       <c r="B51" s="8" t="s">
         <v>54</v>
       </c>
@@ -6933,7 +5492,7 @@
         <v>104050</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3">
       <c r="B52" s="8" t="s">
         <v>55</v>
       </c>
@@ -6941,7 +5500,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3">
       <c r="B53" s="8" t="s">
         <v>56</v>
       </c>
@@ -6949,7 +5508,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3">
       <c r="B54" s="8" t="s">
         <v>57</v>
       </c>
@@ -6957,8 +5516,8 @@
         <v>840</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="14"/>
+    <row r="56" spans="2:3">
+      <c r="C56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6969,6 +5528,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C64A56E9F85AC84187966BAEAF7CF07F" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b4c727a553e750e34f13bc08f769772">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1b167cac-9da6-43f0-b7e7-4775de4a2f66" xmlns:ns3="9073c3f8-2855-48ea-b895-d99d76b52c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67fa4f4e55873e847db25c6735f4e3ac" ns2:_="" ns3:_="">
     <xsd:import namespace="1b167cac-9da6-43f0-b7e7-4775de4a2f66"/>
@@ -7133,22 +5701,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{295CFC91-E0F1-4E53-9BAF-976A902BC7AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7167,7 +5734,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2FD551-9419-4572-B7D3-D2049285AB81}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7181,12 +5748,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F09822B-079C-4C27-8189-9DB71EEA57F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>